--- a/Q3andQ4/Test4.xlsx
+++ b/Q3andQ4/Test4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8715"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="6675" windowHeight="6165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -359,3004 +359,3004 @@
   <sheetData>
     <row r="1" spans="1:1000" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>9.1974509889234479</v>
+        <v>9.720405707858685</v>
       </c>
       <c r="B1">
-        <v>12.171633599824332</v>
+        <v>12.842592352957091</v>
       </c>
       <c r="C1">
-        <v>3.8882472417531666</v>
+        <v>4.6369119544752362</v>
       </c>
       <c r="D1">
-        <v>16.975356254270814</v>
+        <v>15.975667301144934</v>
       </c>
       <c r="E1">
-        <v>11.971969083995893</v>
+        <v>11.103234134043705</v>
       </c>
       <c r="F1">
-        <v>4.0454772804913555</v>
+        <v>4.2460716257652953</v>
       </c>
       <c r="G1">
-        <v>8.7426069612394492</v>
+        <v>8.1793670730804404</v>
       </c>
       <c r="H1">
-        <v>8.9413370932167062</v>
+        <v>11.917887883673885</v>
       </c>
       <c r="I1">
-        <v>9.9766463121433304</v>
+        <v>9.0369681846890391</v>
       </c>
       <c r="J1">
-        <v>14.199916789589205</v>
+        <v>13.335176300642932</v>
       </c>
       <c r="K1">
-        <v>8.2484826547260077</v>
+        <v>7.4158926178477174</v>
       </c>
       <c r="L1">
-        <v>7.7403287771872176</v>
+        <v>7.2917705746175345</v>
       </c>
       <c r="M1">
-        <v>12.602529687748955</v>
+        <v>13.488582849004924</v>
       </c>
       <c r="N1">
-        <v>15.096540437469335</v>
+        <v>15.028342865485154</v>
       </c>
       <c r="O1">
-        <v>4.0148399452439252</v>
+        <v>3.6696416718773897</v>
       </c>
       <c r="P1">
-        <v>3.6775147441370137</v>
+        <v>4.3925463595673513</v>
       </c>
       <c r="Q1">
-        <v>7.3681316474990091</v>
+        <v>6.7780379882991131</v>
       </c>
       <c r="R1">
-        <v>6.6324386979391088</v>
+        <v>6.106800521763236</v>
       </c>
       <c r="S1">
-        <v>13.30429189459969</v>
+        <v>12.897393238564844</v>
       </c>
       <c r="T1">
-        <v>5.6300651489919389</v>
+        <v>4.7355005338946601</v>
       </c>
       <c r="U1">
-        <v>8.4036413109768802</v>
+        <v>7.694311689556308</v>
       </c>
       <c r="V1">
-        <v>11.656200265760441</v>
+        <v>11.322831219140728</v>
       </c>
       <c r="W1">
-        <v>6.7691333664957867</v>
+        <v>9.8042462767944674</v>
       </c>
       <c r="X1">
-        <v>11.541231365476737</v>
+        <v>15.23195470308791</v>
       </c>
       <c r="Y1">
-        <v>9.0501962493264578</v>
+        <v>8.1098973325804451</v>
       </c>
       <c r="Z1">
-        <v>3.5139235858057258</v>
+        <v>2.822444335217305</v>
       </c>
       <c r="AA1">
-        <v>16.135849768569688</v>
+        <v>16.52937160349348</v>
       </c>
       <c r="AB1">
-        <v>6.6512884780353678</v>
+        <v>8.561107797920549</v>
       </c>
       <c r="AC1">
-        <v>6.222732906585291</v>
+        <v>5.4889476051483541</v>
       </c>
       <c r="AD1">
-        <v>7.1531603129776666</v>
+        <v>7.9576227993234774</v>
       </c>
       <c r="AE1">
-        <v>3.3662275948529863</v>
+        <v>3.1759099573323826</v>
       </c>
       <c r="AF1">
-        <v>5.7695531425944591</v>
+        <v>5.9750125946730854</v>
       </c>
       <c r="AG1">
-        <v>11.802585782952519</v>
+        <v>10.84625343673879</v>
       </c>
       <c r="AH1">
-        <v>4.2070861936725086</v>
+        <v>6.6526877384575052</v>
       </c>
       <c r="AI1">
-        <v>8.8223883838349355</v>
+        <v>9.3861771463114927</v>
       </c>
       <c r="AJ1">
-        <v>25.168748192842372</v>
+        <v>24.170880669759789</v>
       </c>
       <c r="AK1">
-        <v>7.8346131372275627</v>
+        <v>6.8486324581199431</v>
       </c>
       <c r="AL1">
-        <v>13.436048669500689</v>
+        <v>13.717178814270628</v>
       </c>
       <c r="AM1">
-        <v>6.2380301062018031</v>
+        <v>5.3465784305115189</v>
       </c>
       <c r="AN1">
-        <v>16.0216472024916</v>
+        <v>15.618565928772245</v>
       </c>
       <c r="AO1">
-        <v>5.9556793479377674</v>
+        <v>6.2220939810933018</v>
       </c>
       <c r="AP1">
-        <v>6.5781494641057847</v>
+        <v>5.6710297645899459</v>
       </c>
       <c r="AQ1">
-        <v>12.244238063066764</v>
+        <v>11.355891286029692</v>
       </c>
       <c r="AR1">
-        <v>11.284059367777745</v>
+        <v>10.367144993757293</v>
       </c>
       <c r="AS1">
-        <v>16.104910472995556</v>
+        <v>16.270299025177177</v>
       </c>
       <c r="AT1">
-        <v>11.083203679624861</v>
+        <v>11.463666046342363</v>
       </c>
       <c r="AU1">
-        <v>12.307863516817607</v>
+        <v>11.519530923875452</v>
       </c>
       <c r="AV1">
-        <v>7.7166737901370732</v>
+        <v>6.7218687108196287</v>
       </c>
       <c r="AW1">
-        <v>5.7252834222759352</v>
+        <v>5.677297819327765</v>
       </c>
       <c r="AX1">
-        <v>5.5141171777005269</v>
+        <v>5.6120070667309063</v>
       </c>
       <c r="AY1">
-        <v>11.585332108996056</v>
+        <v>12.481400964523253</v>
       </c>
       <c r="AZ1">
-        <v>7.5004466292661434</v>
+        <v>6.9475092414847976</v>
       </c>
       <c r="BA1">
-        <v>9.0827135160196715</v>
+        <v>8.1435184370140341</v>
       </c>
       <c r="BB1">
-        <v>15.27522550904736</v>
+        <v>16.309263422431787</v>
       </c>
       <c r="BC1">
-        <v>4.869295837502154</v>
+        <v>3.93774932884756</v>
       </c>
       <c r="BD1">
-        <v>7.2826027137163454</v>
+        <v>6.8848349944030254</v>
       </c>
       <c r="BE1">
-        <v>10.880492224983424</v>
+        <v>10.560542545079093</v>
       </c>
       <c r="BF1">
-        <v>5.0936106115452784</v>
+        <v>4.1657452294618071</v>
       </c>
       <c r="BG1">
-        <v>9.0233472541738173</v>
+        <v>8.1009225207785214</v>
       </c>
       <c r="BH1">
-        <v>8.3198338500377957</v>
+        <v>7.819060879456023</v>
       </c>
       <c r="BI1">
-        <v>5.6019251506626695</v>
+        <v>4.7075474407900053</v>
       </c>
       <c r="BJ1">
-        <v>8.6216668378417065</v>
+        <v>8.9522537227743566</v>
       </c>
       <c r="BK1">
-        <v>10.208752117798205</v>
+        <v>9.6108125897942092</v>
       </c>
       <c r="BL1">
-        <v>16.736363637536414</v>
+        <v>15.954426091607605</v>
       </c>
       <c r="BM1">
-        <v>16.148667895169449</v>
+        <v>16.292119945933216</v>
       </c>
       <c r="BN1">
-        <v>8.203039955826279</v>
+        <v>7.8277107384493281</v>
       </c>
       <c r="BO1">
-        <v>7.7417727546067301</v>
+        <v>6.8859659064638201</v>
       </c>
       <c r="BP1">
-        <v>11.444088725917954</v>
+        <v>10.446835523967323</v>
       </c>
       <c r="BQ1">
-        <v>11.15413893976956</v>
+        <v>12.081680366181274</v>
       </c>
       <c r="BR1">
-        <v>6.8505062842535906</v>
+        <v>5.9692994540356192</v>
       </c>
       <c r="BS1">
-        <v>10.552030785042399</v>
+        <v>9.8482067929178179</v>
       </c>
       <c r="BT1">
-        <v>12.841596903138029</v>
+        <v>11.856882114884588</v>
       </c>
       <c r="BU1">
-        <v>14.047939281728505</v>
+        <v>13.86121168020588</v>
       </c>
       <c r="BV1">
-        <v>5.5201274782768994</v>
+        <v>6.0323067644794968</v>
       </c>
       <c r="BW1">
-        <v>14.006846408834551</v>
+        <v>15.066474331470683</v>
       </c>
       <c r="BX1">
-        <v>7.9850979704249694</v>
+        <v>7.3230457092576575</v>
       </c>
       <c r="BY1">
-        <v>14.817164679339704</v>
+        <v>13.928001977965266</v>
       </c>
       <c r="BZ1">
-        <v>8.4235495004810268</v>
+        <v>7.5390989292027992</v>
       </c>
       <c r="CA1">
-        <v>9.7793291908852638</v>
+        <v>10.454380670677388</v>
       </c>
       <c r="CB1">
-        <v>11.190815319728763</v>
+        <v>13.347438061771427</v>
       </c>
       <c r="CC1">
-        <v>7.9726391024218994</v>
+        <v>7.6663578092527942</v>
       </c>
       <c r="CD1">
-        <v>6.1958687141211062</v>
+        <v>5.2080138161605927</v>
       </c>
       <c r="CE1">
-        <v>4.6969952849838759</v>
+        <v>3.8006186409965457</v>
       </c>
       <c r="CF1">
-        <v>11.223160507707032</v>
+        <v>10.279275895742646</v>
       </c>
       <c r="CG1">
-        <v>6.9091325498921643</v>
+        <v>6.0874607902258475</v>
       </c>
       <c r="CH1">
-        <v>10.771144986481561</v>
+        <v>9.9819096014145785</v>
       </c>
       <c r="CI1">
-        <v>1.6549548917477261</v>
+        <v>1.1894880982261284</v>
       </c>
       <c r="CJ1">
-        <v>13.865115161085477</v>
+        <v>16.206544314086912</v>
       </c>
       <c r="CK1">
-        <v>5.9763474501651288</v>
+        <v>6.2702913024232654</v>
       </c>
       <c r="CL1">
-        <v>12.919357701947757</v>
+        <v>12.883013156820709</v>
       </c>
       <c r="CM1">
-        <v>6.462324302719697</v>
+        <v>6.3595711535969848</v>
       </c>
       <c r="CN1">
-        <v>6.7377410656757837</v>
+        <v>6.8531527685338327</v>
       </c>
       <c r="CO1">
-        <v>8.8588422201659824</v>
+        <v>10.596195384373942</v>
       </c>
       <c r="CP1">
-        <v>9.5088759752546608</v>
+        <v>9.0186057050506871</v>
       </c>
       <c r="CQ1">
-        <v>12.962100834609714</v>
+        <v>14.358522444462647</v>
       </c>
       <c r="CR1">
-        <v>22.700315813607595</v>
+        <v>21.982896084589321</v>
       </c>
       <c r="CS1">
-        <v>4.664960376565757</v>
+        <v>4.7225773850345156</v>
       </c>
       <c r="CT1">
-        <v>9.6741386454598111</v>
+        <v>9.439764190965537</v>
       </c>
       <c r="CU1">
-        <v>7.9136500487757644</v>
+        <v>8.16309530044051</v>
       </c>
       <c r="CV1">
-        <v>6.881969772651324</v>
+        <v>6.9639893805769333</v>
       </c>
       <c r="CW1">
-        <v>12.329146082679246</v>
+        <v>11.747907657566211</v>
       </c>
       <c r="CX1">
-        <v>8.5704354621739398</v>
+        <v>8.7983348838701314</v>
       </c>
       <c r="CY1">
-        <v>5.0689735379910426</v>
+        <v>4.4049487310330822</v>
       </c>
       <c r="CZ1">
-        <v>11.435319469339335</v>
+        <v>10.542910646817139</v>
       </c>
       <c r="DA1">
-        <v>5.9183871874198806</v>
+        <v>5.4057428146250848</v>
       </c>
       <c r="DB1">
-        <v>1.8229013142343704</v>
+        <v>3.1292740435866433</v>
       </c>
       <c r="DC1">
-        <v>3.0329904202472759</v>
+        <v>4.2044457005688596</v>
       </c>
       <c r="DD1">
-        <v>14.300204588476339</v>
+        <v>13.728278557722859</v>
       </c>
       <c r="DE1">
-        <v>19.242371701681996</v>
+        <v>18.344111186898179</v>
       </c>
       <c r="DF1">
-        <v>13.571432018454882</v>
+        <v>14.593734327335126</v>
       </c>
       <c r="DG1">
-        <v>5.3653085106007836</v>
+        <v>4.9056232010021432</v>
       </c>
       <c r="DH1">
-        <v>9.6673538979779252</v>
+        <v>10.897683567713091</v>
       </c>
       <c r="DI1">
-        <v>11.551576294163667</v>
+        <v>12.909638449014425</v>
       </c>
       <c r="DJ1">
-        <v>8.4742074254922972</v>
+        <v>9.4664820890602321</v>
       </c>
       <c r="DK1">
-        <v>7.794255951560725</v>
+        <v>7.1346191440729445</v>
       </c>
       <c r="DL1">
-        <v>16.461654701100141</v>
+        <v>15.6428469784148</v>
       </c>
       <c r="DM1">
-        <v>6.1182801283038222</v>
+        <v>5.5712837019056369</v>
       </c>
       <c r="DN1">
-        <v>13.715284476095611</v>
+        <v>13.090486149874899</v>
       </c>
       <c r="DO1">
-        <v>3.539490057855156</v>
+        <v>2.9989081007632876</v>
       </c>
       <c r="DP1">
-        <v>10.705741019338467</v>
+        <v>9.9553348651059288</v>
       </c>
       <c r="DQ1">
-        <v>3.8893167973553116</v>
+        <v>3.2875181260451498</v>
       </c>
       <c r="DR1">
-        <v>10.844693320051096</v>
+        <v>12.252828780016873</v>
       </c>
       <c r="DS1">
-        <v>7.8505204186142876</v>
+        <v>9.0315631256114877</v>
       </c>
       <c r="DT1">
-        <v>7.6388383240195203</v>
+        <v>6.7096887748911112</v>
       </c>
       <c r="DU1">
-        <v>13.361870213243037</v>
+        <v>12.969426189979194</v>
       </c>
       <c r="DV1">
-        <v>10.525293966697364</v>
+        <v>9.5393659116487299</v>
       </c>
       <c r="DW1">
-        <v>12.989968087672029</v>
+        <v>16.060569635541867</v>
       </c>
       <c r="DX1">
-        <v>8.4476882011566978</v>
+        <v>8.8616003754702835</v>
       </c>
       <c r="DY1">
-        <v>5.9268425077880043</v>
+        <v>5.4462907496984716</v>
       </c>
       <c r="DZ1">
-        <v>10.022901383913171</v>
+        <v>9.9852945267488558</v>
       </c>
       <c r="EA1">
-        <v>7.7487859178914889</v>
+        <v>6.7521587150380498</v>
       </c>
       <c r="EB1">
-        <v>13.337161676031533</v>
+        <v>12.342019335787345</v>
       </c>
       <c r="EC1">
-        <v>13.962099742590777</v>
+        <v>13.708423061629947</v>
       </c>
       <c r="ED1">
-        <v>5.2256512561008428</v>
+        <v>5.6198847700659886</v>
       </c>
       <c r="EE1">
-        <v>11.907409504320736</v>
+        <v>11.819213996314536</v>
       </c>
       <c r="EF1">
-        <v>3.3121952942047721</v>
+        <v>3.2709682092798351</v>
       </c>
       <c r="EG1">
-        <v>6.919995085447967</v>
+        <v>8.3764337262549446</v>
       </c>
       <c r="EH1">
-        <v>10.391121668363411</v>
+        <v>10.380463298075135</v>
       </c>
       <c r="EI1">
-        <v>8.1213141474349086</v>
+        <v>9.4358162051578809</v>
       </c>
       <c r="EJ1">
-        <v>11.529296531693696</v>
+        <v>10.535649372640588</v>
       </c>
       <c r="EK1">
-        <v>4.7146881550002968</v>
+        <v>4.3030225954890913</v>
       </c>
       <c r="EL1">
-        <v>8.4486767174449433</v>
+        <v>9.1868100318958756</v>
       </c>
       <c r="EM1">
-        <v>15.473832392159794</v>
+        <v>16.202620403349243</v>
       </c>
       <c r="EN1">
-        <v>11.132864388727299</v>
+        <v>10.1329389533289</v>
       </c>
       <c r="EO1">
-        <v>18.115874847714956</v>
+        <v>17.18347623630989</v>
       </c>
       <c r="EP1">
-        <v>11.973361057002613</v>
+        <v>11.148739915851566</v>
       </c>
       <c r="EQ1">
-        <v>6.1622102868337656</v>
+        <v>5.4571773562016377</v>
       </c>
       <c r="ER1">
-        <v>16.529320471431095</v>
+        <v>15.530550893462689</v>
       </c>
       <c r="ES1">
-        <v>7.2262673616469009</v>
+        <v>6.3757429092575055</v>
       </c>
       <c r="ET1">
-        <v>8.9044913241204657</v>
+        <v>9.2936888425208775</v>
       </c>
       <c r="EU1">
-        <v>6.8678840342053453</v>
+        <v>7.2703505093559642</v>
       </c>
       <c r="EV1">
-        <v>10.83085046806684</v>
+        <v>10.624012710169069</v>
       </c>
       <c r="EW1">
-        <v>8.3338064703104209</v>
+        <v>7.8833725929188478</v>
       </c>
       <c r="EX1">
-        <v>10.929851298252544</v>
+        <v>10.872164190997925</v>
       </c>
       <c r="EY1">
-        <v>4.1056201175705445</v>
+        <v>4.6629586516971626</v>
       </c>
       <c r="EZ1">
-        <v>4.5825586718023761</v>
+        <v>3.668502999588604</v>
       </c>
       <c r="FA1">
-        <v>13.565058112182072</v>
+        <v>13.566193116538043</v>
       </c>
       <c r="FB1">
-        <v>8.9879827697580588</v>
+        <v>8.1916816511191985</v>
       </c>
       <c r="FC1">
-        <v>7.7760273996400802</v>
+        <v>7.160707618374623</v>
       </c>
       <c r="FD1">
-        <v>15.69889787503422</v>
+        <v>14.915440201551005</v>
       </c>
       <c r="FE1">
-        <v>10.233421513338147</v>
+        <v>9.7210461676396154</v>
       </c>
       <c r="FF1">
-        <v>23.304629683156115</v>
+        <v>23.13633384142404</v>
       </c>
       <c r="FG1">
-        <v>5.6902110094844254</v>
+        <v>5.6882334387831337</v>
       </c>
       <c r="FH1">
-        <v>6.739714834960699</v>
+        <v>5.9422172602498406</v>
       </c>
       <c r="FI1">
-        <v>13.944117278892442</v>
+        <v>12.955356976008545</v>
       </c>
       <c r="FJ1">
-        <v>15.010151211399499</v>
+        <v>16.296598059899104</v>
       </c>
       <c r="FK1">
-        <v>12.319205992862447</v>
+        <v>11.746995020219536</v>
       </c>
       <c r="FL1">
-        <v>7.1934996411519521</v>
+        <v>7.5215141347893653</v>
       </c>
       <c r="FM1">
-        <v>6.2870591280172672</v>
+        <v>8.969176680270559</v>
       </c>
       <c r="FN1">
-        <v>4.458131666759412</v>
+        <v>4.1057147463847059</v>
       </c>
       <c r="FO1">
-        <v>9.9226096045442613</v>
+        <v>9.2460020925028097</v>
       </c>
       <c r="FP1">
-        <v>13.648101529559341</v>
+        <v>12.714264022708502</v>
       </c>
       <c r="FQ1">
-        <v>4.1717127447409226</v>
+        <v>3.9160577380330284</v>
       </c>
       <c r="FR1">
-        <v>5.9703079356008733</v>
+        <v>5.7711938340687068</v>
       </c>
       <c r="FS1">
-        <v>14.480510671288766</v>
+        <v>17.519681862765289</v>
       </c>
       <c r="FT1">
-        <v>4.2866087289050094</v>
+        <v>5.2043139284594222</v>
       </c>
       <c r="FU1">
-        <v>7.4590363462325122</v>
+        <v>7.0166419030177476</v>
       </c>
       <c r="FV1">
-        <v>10.894967960613522</v>
+        <v>9.8987101530949708</v>
       </c>
       <c r="FW1">
-        <v>6.3639583879108148</v>
+        <v>7.3774898352855924</v>
       </c>
       <c r="FX1">
-        <v>10.560516943365657</v>
+        <v>11.843728995683001</v>
       </c>
       <c r="FY1">
-        <v>10.263131994146347</v>
+        <v>11.140196776144125</v>
       </c>
       <c r="FZ1">
-        <v>10.966649683808036</v>
+        <v>12.324120987206012</v>
       </c>
       <c r="GA1">
-        <v>7.3955747153865694</v>
+        <v>6.4053012686897857</v>
       </c>
       <c r="GB1">
-        <v>5.5916858962289195</v>
+        <v>8.7649467016843055</v>
       </c>
       <c r="GC1">
-        <v>6.5713870336142319</v>
+        <v>5.6734669700785183</v>
       </c>
       <c r="GD1">
-        <v>9.7448699599972528</v>
+        <v>8.8453802650522046</v>
       </c>
       <c r="GE1">
-        <v>15.651042850935561</v>
+        <v>15.338084887148753</v>
       </c>
       <c r="GF1">
-        <v>5.776192257751144</v>
+        <v>5.0635292937131631</v>
       </c>
       <c r="GG1">
-        <v>14.883476182360406</v>
+        <v>13.948807809249757</v>
       </c>
       <c r="GH1">
-        <v>13.837033968108319</v>
+        <v>13.42391326152114</v>
       </c>
       <c r="GI1">
-        <v>21.87895448936235</v>
+        <v>20.949958226655831</v>
       </c>
       <c r="GJ1">
-        <v>15.536271388220829</v>
+        <v>14.905459708564472</v>
       </c>
       <c r="GK1">
-        <v>7.2190493467105483</v>
+        <v>7.0781077777804366</v>
       </c>
       <c r="GL1">
-        <v>8.4624286447386865</v>
+        <v>7.6699455297641457</v>
       </c>
       <c r="GM1">
-        <v>7.7173440960431634</v>
+        <v>6.8874379089179136</v>
       </c>
       <c r="GN1">
-        <v>4.4318249272246453</v>
+        <v>4.2842512287816934</v>
       </c>
       <c r="GO1">
-        <v>8.6815726808360623</v>
+        <v>7.9615453304781969</v>
       </c>
       <c r="GP1">
-        <v>9.9673332304368483</v>
+        <v>10.012282259324365</v>
       </c>
       <c r="GQ1">
-        <v>17.744284544604</v>
+        <v>17.660810067473601</v>
       </c>
       <c r="GR1">
-        <v>4.9772660294574091</v>
+        <v>5.3427417806596882</v>
       </c>
       <c r="GS1">
-        <v>12.611509138559878</v>
+        <v>11.627360500537076</v>
       </c>
       <c r="GT1">
-        <v>4.7278273910030499</v>
+        <v>6.2660407445731776</v>
       </c>
       <c r="GU1">
-        <v>9.8483372652234706</v>
+        <v>9.3090550658873354</v>
       </c>
       <c r="GV1">
-        <v>15.518517045439308</v>
+        <v>14.565382925954955</v>
       </c>
       <c r="GW1">
-        <v>3.0550414147197342</v>
+        <v>2.8301726936287941</v>
       </c>
       <c r="GX1">
-        <v>9.9896625913913759</v>
+        <v>9.4584580782972569</v>
       </c>
       <c r="GY1">
-        <v>25.243212217172093</v>
+        <v>24.312801922421549</v>
       </c>
       <c r="GZ1">
-        <v>3.4793428371549266</v>
+        <v>3.5820337981025152</v>
       </c>
       <c r="HA1">
-        <v>3.5377069317560195</v>
+        <v>2.5502757611854099</v>
       </c>
       <c r="HB1">
-        <v>9.7943859800802056</v>
+        <v>8.7986290412626182</v>
       </c>
       <c r="HC1">
-        <v>26.976382387384319</v>
+        <v>26.218627723831112</v>
       </c>
       <c r="HD1">
-        <v>17.260485043792173</v>
+        <v>16.690708725531131</v>
       </c>
       <c r="HE1">
-        <v>14.070020914892087</v>
+        <v>13.342159309534065</v>
       </c>
       <c r="HF1">
-        <v>10.456818320444945</v>
+        <v>9.5416053108481389</v>
       </c>
       <c r="HG1">
-        <v>9.1621322832447447</v>
+        <v>9.4387182904794322</v>
       </c>
       <c r="HH1">
-        <v>13.585733445965037</v>
+        <v>12.588349844402426</v>
       </c>
       <c r="HI1">
-        <v>8.40853400602942</v>
+        <v>8.6006307271097775</v>
       </c>
       <c r="HJ1">
-        <v>8.4748772550054916</v>
+        <v>7.8118390243119569</v>
       </c>
       <c r="HK1">
-        <v>7.4775491425300835</v>
+        <v>6.6080849621664228</v>
       </c>
       <c r="HL1">
-        <v>18.003736269533434</v>
+        <v>18.171083937086408</v>
       </c>
       <c r="HM1">
-        <v>10.878791477096605</v>
+        <v>10.364061804440251</v>
       </c>
       <c r="HN1">
-        <v>13.168790058930595</v>
+        <v>12.523489077003944</v>
       </c>
       <c r="HO1">
-        <v>6.0097994786740987</v>
+        <v>6.0711794297502752</v>
       </c>
       <c r="HP1">
-        <v>11.078731910745599</v>
+        <v>10.0978010245985</v>
       </c>
       <c r="HQ1">
-        <v>14.483244081889566</v>
+        <v>13.650796863302093</v>
       </c>
       <c r="HR1">
-        <v>16.370793087600553</v>
+        <v>16.30008058877916</v>
       </c>
       <c r="HS1">
-        <v>12.761327677324132</v>
+        <v>11.800046178321439</v>
       </c>
       <c r="HT1">
-        <v>5.5076181267490698</v>
+        <v>5.1212388552782881</v>
       </c>
       <c r="HU1">
-        <v>8.5923009959215335</v>
+        <v>9.2764815113263914</v>
       </c>
       <c r="HV1">
-        <v>6.0384815713820039</v>
+        <v>8.4482298194711785</v>
       </c>
       <c r="HW1">
-        <v>2.9441683306405433</v>
+        <v>2.4415889872987111</v>
       </c>
       <c r="HX1">
-        <v>9.1533383263701857</v>
+        <v>8.6596707649156954</v>
       </c>
       <c r="HY1">
-        <v>10.896612919460027</v>
+        <v>10.246816646326637</v>
       </c>
       <c r="HZ1">
-        <v>14.850998421666308</v>
+        <v>14.148639474054107</v>
       </c>
       <c r="IA1">
-        <v>16.765514225347324</v>
+        <v>17.142089328708785</v>
       </c>
       <c r="IB1">
-        <v>7.876336090630029</v>
+        <v>10.381909029236329</v>
       </c>
       <c r="IC1">
-        <v>12.733170677883903</v>
+        <v>11.74391769764658</v>
       </c>
       <c r="ID1">
-        <v>13.252225953809312</v>
+        <v>13.252603691271522</v>
       </c>
       <c r="IE1">
-        <v>12.646637435146207</v>
+        <v>13.110686784340579</v>
       </c>
       <c r="IF1">
-        <v>6.6309690419740379</v>
+        <v>6.3371307298093802</v>
       </c>
       <c r="IG1">
-        <v>4.8430799894603753</v>
+        <v>5.02756884864481</v>
       </c>
       <c r="IH1">
-        <v>20.604715195437858</v>
+        <v>20.717005554016065</v>
       </c>
       <c r="II1">
-        <v>12.194403590879357</v>
+        <v>11.996055293541342</v>
       </c>
       <c r="IJ1">
-        <v>4.2992642479119372</v>
+        <v>3.6266889100004605</v>
       </c>
       <c r="IK1">
-        <v>6.0166925627378918</v>
+        <v>5.6156335364668095</v>
       </c>
       <c r="IL1">
-        <v>8.6070638662556131</v>
+        <v>8.9361781574403949</v>
       </c>
       <c r="IM1">
-        <v>8.069052780813502</v>
+        <v>7.3810299767583754</v>
       </c>
       <c r="IN1">
-        <v>5.7651823500277217</v>
+        <v>5.5497430728326389</v>
       </c>
       <c r="IO1">
-        <v>12.524214752723926</v>
+        <v>11.841467251051139</v>
       </c>
       <c r="IP1">
-        <v>7.4546959576196867</v>
+        <v>6.4547276037023105</v>
       </c>
       <c r="IQ1">
-        <v>14.831493892738118</v>
+        <v>14.63747707229891</v>
       </c>
       <c r="IR1">
-        <v>7.4920875956092381</v>
+        <v>6.6741713042809394</v>
       </c>
       <c r="IS1">
-        <v>18.430295546817053</v>
+        <v>17.648707530628123</v>
       </c>
       <c r="IT1">
-        <v>9.0275764855790221</v>
+        <v>9.5085436416621931</v>
       </c>
       <c r="IU1">
-        <v>2.4384443854196993</v>
+        <v>2.4244290145639189</v>
       </c>
       <c r="IV1">
-        <v>14.599138258589003</v>
+        <v>13.602105331307548</v>
       </c>
       <c r="IW1">
-        <v>20.015407819840036</v>
+        <v>21.316966922436674</v>
       </c>
       <c r="IX1">
-        <v>5.2093070046176928</v>
+        <v>7.3004988128782573</v>
       </c>
       <c r="IY1">
-        <v>5.0522372357274019</v>
+        <v>6.0288447262856453</v>
       </c>
       <c r="IZ1">
-        <v>5.6063531333980139</v>
+        <v>7.1080591567098192</v>
       </c>
       <c r="JA1">
-        <v>11.077239536866761</v>
+        <v>13.599985207783879</v>
       </c>
       <c r="JB1">
-        <v>11.124652684285385</v>
+        <v>11.218444752303142</v>
       </c>
       <c r="JC1">
-        <v>13.000671090811409</v>
+        <v>13.407524381658538</v>
       </c>
       <c r="JD1">
-        <v>11.491864910556622</v>
+        <v>12.939621262482035</v>
       </c>
       <c r="JE1">
-        <v>11.719940955099878</v>
+        <v>11.204568522316698</v>
       </c>
       <c r="JF1">
-        <v>8.3786106382689702</v>
+        <v>7.8765702583450796</v>
       </c>
       <c r="JG1">
-        <v>8.2812132010256114</v>
+        <v>7.3115861452490911</v>
       </c>
       <c r="JH1">
-        <v>13.900628052076254</v>
+        <v>13.070447783610112</v>
       </c>
       <c r="JI1">
-        <v>17.708964171436026</v>
+        <v>18.025484300199274</v>
       </c>
       <c r="JJ1">
-        <v>7.7591644668306108</v>
+        <v>8.652041798969174</v>
       </c>
       <c r="JK1">
-        <v>7.6954976615256871</v>
+        <v>6.6974604277448293</v>
       </c>
       <c r="JL1">
-        <v>12.589624865311546</v>
+        <v>12.159874030292642</v>
       </c>
       <c r="JM1">
-        <v>10.586845554102638</v>
+        <v>9.6246548054880705</v>
       </c>
       <c r="JN1">
-        <v>5.9603276804299341</v>
+        <v>5.3146011590211977</v>
       </c>
       <c r="JO1">
-        <v>7.5392853120290315</v>
+        <v>8.4779551377658269</v>
       </c>
       <c r="JP1">
-        <v>6.2263790593611521</v>
+        <v>7.738769305849897</v>
       </c>
       <c r="JQ1">
-        <v>4.0525897962197899</v>
+        <v>4.3011385887772695</v>
       </c>
       <c r="JR1">
-        <v>3.8346541031070553</v>
+        <v>6.3415372220575712</v>
       </c>
       <c r="JS1">
-        <v>8.1182829846135895</v>
+        <v>7.1194137103527257</v>
       </c>
       <c r="JT1">
-        <v>5.6863782188931369</v>
+        <v>6.4582318876955593</v>
       </c>
       <c r="JU1">
-        <v>4.6614987395969747</v>
+        <v>4.1541654761870621</v>
       </c>
       <c r="JV1">
-        <v>15.799464849602924</v>
+        <v>14.803615855309724</v>
       </c>
       <c r="JW1">
-        <v>13.477604872277759</v>
+        <v>14.488212843829656</v>
       </c>
       <c r="JX1">
-        <v>4.5838362270959276</v>
+        <v>4.2813530802396</v>
       </c>
       <c r="JY1">
-        <v>10.086691794991614</v>
+        <v>9.2897972644158617</v>
       </c>
       <c r="JZ1">
-        <v>5.2768164278168523</v>
+        <v>9.7615667387094014</v>
       </c>
       <c r="KA1">
-        <v>12.527810532419277</v>
+        <v>11.765083614083121</v>
       </c>
       <c r="KB1">
-        <v>14.249282454421829</v>
+        <v>13.249287164109639</v>
       </c>
       <c r="KC1">
-        <v>17.58313907592153</v>
+        <v>16.591018117428884</v>
       </c>
       <c r="KD1">
-        <v>13.196763914634779</v>
+        <v>12.865467270921245</v>
       </c>
       <c r="KE1">
-        <v>5.8592567356985255</v>
+        <v>5.4253474238943031</v>
       </c>
       <c r="KF1">
-        <v>17.643893598958172</v>
+        <v>17.002592322103538</v>
       </c>
       <c r="KG1">
-        <v>6.2265534444025743</v>
+        <v>6.4237680986513164</v>
       </c>
       <c r="KH1">
-        <v>17.261374271799628</v>
+        <v>16.262169126153807</v>
       </c>
       <c r="KI1">
-        <v>5.9956306169876825</v>
+        <v>5.2203651952447281</v>
       </c>
       <c r="KJ1">
-        <v>9.5808569719837386</v>
+        <v>11.701131675106691</v>
       </c>
       <c r="KK1">
-        <v>6.1127745944148941</v>
+        <v>7.5143243097049668</v>
       </c>
       <c r="KL1">
-        <v>6.4568451400813922</v>
+        <v>6.1872726344180613</v>
       </c>
       <c r="KM1">
-        <v>12.403623882187453</v>
+        <v>11.508325446895581</v>
       </c>
       <c r="KN1">
-        <v>14.000397606644182</v>
+        <v>13.004079935242535</v>
       </c>
       <c r="KO1">
-        <v>9.4774205697453997</v>
+        <v>9.9669611860160643</v>
       </c>
       <c r="KP1">
-        <v>8.5599827848056815</v>
+        <v>7.9920838478836576</v>
       </c>
       <c r="KQ1">
-        <v>10.041171062805196</v>
+        <v>9.2814392428917145</v>
       </c>
       <c r="KR1">
-        <v>6.3630811884192617</v>
+        <v>5.6268307331675773</v>
       </c>
       <c r="KS1">
-        <v>9.9337276228784024</v>
+        <v>12.120185896843298</v>
       </c>
       <c r="KT1">
-        <v>6.6678270492518843</v>
+        <v>6.1242778022998463</v>
       </c>
       <c r="KU1">
-        <v>6.401682246903766</v>
+        <v>6.9795714828827728</v>
       </c>
       <c r="KV1">
-        <v>9.763864712136602</v>
+        <v>8.7821095054099612</v>
       </c>
       <c r="KW1">
-        <v>11.080537863575595</v>
+        <v>10.269234210799493</v>
       </c>
       <c r="KX1">
-        <v>4.6414792227303074</v>
+        <v>4.8962718851307336</v>
       </c>
       <c r="KY1">
-        <v>14.8731006837381</v>
+        <v>13.976302043968575</v>
       </c>
       <c r="KZ1">
-        <v>6.7339474915077879</v>
+        <v>7.2077524675642852</v>
       </c>
       <c r="LA1">
-        <v>11.708853214009093</v>
+        <v>11.152156628274614</v>
       </c>
       <c r="LB1">
-        <v>17.392587464769523</v>
+        <v>16.6516609354852</v>
       </c>
       <c r="LC1">
-        <v>16.098130038245792</v>
+        <v>15.160151785949692</v>
       </c>
       <c r="LD1">
-        <v>35.63174276004473</v>
+        <v>36.859790330280873</v>
       </c>
       <c r="LE1">
-        <v>19.741761457552794</v>
+        <v>20.419068764830094</v>
       </c>
       <c r="LF1">
-        <v>6.6528586601669089</v>
+        <v>5.7369655962103856</v>
       </c>
       <c r="LG1">
-        <v>7.5920549790024925</v>
+        <v>7.0544993277656634</v>
       </c>
       <c r="LH1">
-        <v>8.2242443053432073</v>
+        <v>10.00946815042615</v>
       </c>
       <c r="LI1">
-        <v>9.8113288926352435</v>
+        <v>8.8687025462978095</v>
       </c>
       <c r="LJ1">
-        <v>13.729022964335963</v>
+        <v>12.903112785332031</v>
       </c>
       <c r="LK1">
-        <v>5.2656973345671307</v>
+        <v>5.9387160812010951</v>
       </c>
       <c r="LL1">
-        <v>4.5182845408183461</v>
+        <v>6.3986034799488678</v>
       </c>
       <c r="LM1">
-        <v>7.3267750823500375</v>
+        <v>9.3899216003927073</v>
       </c>
       <c r="LN1">
-        <v>13.14827135564688</v>
+        <v>12.307517423983453</v>
       </c>
       <c r="LO1">
-        <v>8.9620109561678625</v>
+        <v>8.5745767181268029</v>
       </c>
       <c r="LP1">
-        <v>4.4173540707235306</v>
+        <v>3.8152209834473005</v>
       </c>
       <c r="LQ1">
-        <v>7.3443487629793225</v>
+        <v>7.1644252661793733</v>
       </c>
       <c r="LR1">
-        <v>8.9658245487958137</v>
+        <v>10.263663616182603</v>
       </c>
       <c r="LS1">
-        <v>5.8911704881032865</v>
+        <v>5.3580030457031782</v>
       </c>
       <c r="LT1">
-        <v>16.304439218830765</v>
+        <v>25.978755935879853</v>
       </c>
       <c r="LU1">
-        <v>7.3207366057475074</v>
+        <v>7.5387413414318001</v>
       </c>
       <c r="LV1">
-        <v>7.9948857838190222</v>
+        <v>10.154619429867594</v>
       </c>
       <c r="LW1">
-        <v>11.444017055808992</v>
+        <v>11.626447036957572</v>
       </c>
       <c r="LX1">
-        <v>10.925723030427211</v>
+        <v>9.9719000582928476</v>
       </c>
       <c r="LY1">
-        <v>13.453085499559446</v>
+        <v>12.680807694787116</v>
       </c>
       <c r="LZ1">
-        <v>16.089778972149631</v>
+        <v>15.111151079679242</v>
       </c>
       <c r="MA1">
-        <v>3.7104616160822177</v>
+        <v>4.2224223316347462</v>
       </c>
       <c r="MB1">
-        <v>6.3965578286830622</v>
+        <v>8.5708160488797702</v>
       </c>
       <c r="MC1">
-        <v>8.5551146712853754</v>
+        <v>8.8231607314389997</v>
       </c>
       <c r="MD1">
-        <v>7.6371468159294178</v>
+        <v>8.0613356368710676</v>
       </c>
       <c r="ME1">
-        <v>9.5799443758729232</v>
+        <v>8.5978544407183382</v>
       </c>
       <c r="MF1">
-        <v>9.2055752021101913</v>
+        <v>8.7614778540251983</v>
       </c>
       <c r="MG1">
-        <v>9.927341879305736</v>
+        <v>8.9954095819786684</v>
       </c>
       <c r="MH1">
-        <v>5.5685878153060155</v>
+        <v>5.0413555520914954</v>
       </c>
       <c r="MI1">
-        <v>12.129021289992645</v>
+        <v>11.154582509965413</v>
       </c>
       <c r="MJ1">
-        <v>5.567679331584622</v>
+        <v>4.6250934961958343</v>
       </c>
       <c r="MK1">
-        <v>10.597612543059341</v>
+        <v>9.6931111819276321</v>
       </c>
       <c r="ML1">
-        <v>17.099341595186075</v>
+        <v>16.102311899547445</v>
       </c>
       <c r="MM1">
-        <v>25.206968329026569</v>
+        <v>24.318687646723159</v>
       </c>
       <c r="MN1">
-        <v>6.1495969595402027</v>
+        <v>5.5985680896758518</v>
       </c>
       <c r="MO1">
-        <v>18.43068346719113</v>
+        <v>17.766542751375752</v>
       </c>
       <c r="MP1">
-        <v>13.347610504022001</v>
+        <v>13.252337198373603</v>
       </c>
       <c r="MQ1">
-        <v>8.5705696599394248</v>
+        <v>8.6247658580404263</v>
       </c>
       <c r="MR1">
-        <v>10.35132835922963</v>
+        <v>11.856963345117894</v>
       </c>
       <c r="MS1">
-        <v>10.104930158034428</v>
+        <v>9.2291122293267058</v>
       </c>
       <c r="MT1">
-        <v>6.0560240542599253</v>
+        <v>6.6814375518662574</v>
       </c>
       <c r="MU1">
-        <v>3.8594457171056242</v>
+        <v>3.4244464430957926</v>
       </c>
       <c r="MV1">
-        <v>2.7205754786165359</v>
+        <v>3.7896424861258691</v>
       </c>
       <c r="MW1">
-        <v>16.570550337177693</v>
+        <v>15.588510155713863</v>
       </c>
       <c r="MX1">
-        <v>4.0953125978567355</v>
+        <v>4.027544528502319</v>
       </c>
       <c r="MY1">
-        <v>8.9761100927833812</v>
+        <v>8.0032588288218669</v>
       </c>
       <c r="MZ1">
-        <v>17.80820695190889</v>
+        <v>17.694332402212183</v>
       </c>
       <c r="NA1">
-        <v>19.297697380216409</v>
+        <v>21.18288633753783</v>
       </c>
       <c r="NB1">
-        <v>5.2681429116784937</v>
+        <v>5.1261335473544456</v>
       </c>
       <c r="NC1">
-        <v>12.576977230096642</v>
+        <v>13.430274479168247</v>
       </c>
       <c r="ND1">
-        <v>10.457320803572683</v>
+        <v>10.215321578940369</v>
       </c>
       <c r="NE1">
-        <v>4.4387239980432032</v>
+        <v>3.4387324945684545</v>
       </c>
       <c r="NF1">
-        <v>9.2327593835720272</v>
+        <v>8.8953955672638401</v>
       </c>
       <c r="NG1">
-        <v>7.5291379437882489</v>
+        <v>7.3736837096401686</v>
       </c>
       <c r="NH1">
-        <v>17.357952831765296</v>
+        <v>16.948832496453871</v>
       </c>
       <c r="NI1">
-        <v>8.5147247909996082</v>
+        <v>7.8605294682366953</v>
       </c>
       <c r="NJ1">
-        <v>7.0754996323232309</v>
+        <v>12.676645650689009</v>
       </c>
       <c r="NK1">
-        <v>7.577121076548508</v>
+        <v>7.6941547367763672</v>
       </c>
       <c r="NL1">
-        <v>7.3624519910382471</v>
+        <v>10.705626537077732</v>
       </c>
       <c r="NM1">
-        <v>2.3466054691723981</v>
+        <v>5.9772167948295714</v>
       </c>
       <c r="NN1">
-        <v>5.0604015329366936</v>
+        <v>5.4514127266460708</v>
       </c>
       <c r="NO1">
-        <v>5.3991411441384507</v>
+        <v>5.529349305120121</v>
       </c>
       <c r="NP1">
-        <v>12.265790678897808</v>
+        <v>12.344762082851995</v>
       </c>
       <c r="NQ1">
-        <v>7.7728652592050436</v>
+        <v>6.7837842184882167</v>
       </c>
       <c r="NR1">
-        <v>9.063956699938295</v>
+        <v>9.225625258030961</v>
       </c>
       <c r="NS1">
-        <v>15.752971882084907</v>
+        <v>15.656358472544582</v>
       </c>
       <c r="NT1">
-        <v>8.8918520624585042</v>
+        <v>10.45667946271853</v>
       </c>
       <c r="NU1">
-        <v>8.9344207192532679</v>
+        <v>8.6570635656574666</v>
       </c>
       <c r="NV1">
-        <v>10.788309642522824</v>
+        <v>10.03163745960909</v>
       </c>
       <c r="NW1">
-        <v>6.4109497250610143</v>
+        <v>6.707963191540407</v>
       </c>
       <c r="NX1">
-        <v>9.6841535069683218</v>
+        <v>9.4153879601917243</v>
       </c>
       <c r="NY1">
-        <v>9.3906330948817711</v>
+        <v>8.3991141398043343</v>
       </c>
       <c r="NZ1">
-        <v>5.8047215563806489</v>
+        <v>6.5225172861513698</v>
       </c>
       <c r="OA1">
-        <v>6.3627052052896893</v>
+        <v>5.5179546306612384</v>
       </c>
       <c r="OB1">
-        <v>8.9313095557866014</v>
+        <v>12.8873203526789</v>
       </c>
       <c r="OC1">
-        <v>8.9106066798883017</v>
+        <v>9.5214295915784692</v>
       </c>
       <c r="OD1">
-        <v>9.0407354135789735</v>
+        <v>8.2245745642476251</v>
       </c>
       <c r="OE1">
-        <v>11.915110826372608</v>
+        <v>14.480985325733023</v>
       </c>
       <c r="OF1">
-        <v>8.2786569143085948</v>
+        <v>7.9995413434329059</v>
       </c>
       <c r="OG1">
-        <v>12.046121982188479</v>
+        <v>12.229815804983446</v>
       </c>
       <c r="OH1">
-        <v>5.8935799600739731</v>
+        <v>5.8519191359590339</v>
       </c>
       <c r="OI1">
-        <v>5.1465355634390795</v>
+        <v>4.1469106949132168</v>
       </c>
       <c r="OJ1">
-        <v>11.071227174375267</v>
+        <v>10.996436271509308</v>
       </c>
       <c r="OK1">
-        <v>7.542172213164422</v>
+        <v>8.9962543009143694</v>
       </c>
       <c r="OL1">
-        <v>13.226829078349907</v>
+        <v>12.516122411020683</v>
       </c>
       <c r="OM1">
-        <v>5.9269007561454883</v>
+        <v>7.2966829029136759</v>
       </c>
       <c r="ON1">
-        <v>4.7681338981731738</v>
+        <v>6.2521065642945963</v>
       </c>
       <c r="OO1">
-        <v>12.734667488374891</v>
+        <v>12.875801275188321</v>
       </c>
       <c r="OP1">
-        <v>17.144565485082776</v>
+        <v>16.171528985868495</v>
       </c>
       <c r="OQ1">
-        <v>7.8650651083151013</v>
+        <v>6.8744094224284371</v>
       </c>
       <c r="OR1">
-        <v>6.4845842636412074</v>
+        <v>5.4994457287826402</v>
       </c>
       <c r="OS1">
-        <v>7.7721965578500871</v>
+        <v>7.3890902594913594</v>
       </c>
       <c r="OT1">
-        <v>12.502768441000356</v>
+        <v>11.503073586636592</v>
       </c>
       <c r="OU1">
-        <v>18.47049946770457</v>
+        <v>17.789777617101148</v>
       </c>
       <c r="OV1">
-        <v>6.7936030920002377</v>
+        <v>6.0494751005073581</v>
       </c>
       <c r="OW1">
-        <v>11.838590221303027</v>
+        <v>16.064346838273536</v>
       </c>
       <c r="OX1">
-        <v>8.4906084941190691</v>
+        <v>9.7351136238712286</v>
       </c>
       <c r="OY1">
-        <v>11.973976220381832</v>
+        <v>11.594783499212721</v>
       </c>
       <c r="OZ1">
-        <v>5.849342937925087</v>
+        <v>6.2055699190924898</v>
       </c>
       <c r="PA1">
-        <v>8.715802897802007</v>
+        <v>8.1680679344922851</v>
       </c>
       <c r="PB1">
-        <v>9.0412930424200795</v>
+        <v>8.0433496369755115</v>
       </c>
       <c r="PC1">
-        <v>11.163627233933472</v>
+        <v>10.165988426528841</v>
       </c>
       <c r="PD1">
-        <v>5.2823916256139993</v>
+        <v>7.0530142788823547</v>
       </c>
       <c r="PE1">
-        <v>5.7552656328988459</v>
+        <v>4.7574110119461928</v>
       </c>
       <c r="PF1">
-        <v>9.0265677965909905</v>
+        <v>8.9569120044593902</v>
       </c>
       <c r="PG1">
-        <v>12.408260269792518</v>
+        <v>11.578407679343661</v>
       </c>
       <c r="PH1">
-        <v>5.4892285644690348</v>
+        <v>4.8047040907982526</v>
       </c>
       <c r="PI1">
-        <v>10.292914180710195</v>
+        <v>9.5409400472527786</v>
       </c>
       <c r="PJ1">
-        <v>6.7342656347622771</v>
+        <v>5.9175303215415092</v>
       </c>
       <c r="PK1">
-        <v>8.3467355608860885</v>
+        <v>12.36537682948101</v>
       </c>
       <c r="PL1">
-        <v>10.14631083218638</v>
+        <v>9.2028408748644406</v>
       </c>
       <c r="PM1">
-        <v>8.565242872011007</v>
+        <v>8.5079268468505429</v>
       </c>
       <c r="PN1">
-        <v>9.4061685795870886</v>
+        <v>9.5916333309835036</v>
       </c>
       <c r="PO1">
-        <v>10.993251675665283</v>
+        <v>10.117547162343122</v>
       </c>
       <c r="PP1">
-        <v>5.8014133243705235</v>
+        <v>6.1706571050137455</v>
       </c>
       <c r="PQ1">
-        <v>16.221542026830747</v>
+        <v>15.2236168309252</v>
       </c>
       <c r="PR1">
-        <v>7.521252351581877</v>
+        <v>6.9065356872841166</v>
       </c>
       <c r="PS1">
-        <v>8.3656034392779457</v>
+        <v>7.5600262599330419</v>
       </c>
       <c r="PT1">
-        <v>6.2212283833753981</v>
+        <v>7.4618528910619002</v>
       </c>
       <c r="PU1">
-        <v>6.3286094752520867</v>
+        <v>6.1905683694085889</v>
       </c>
       <c r="PV1">
-        <v>9.6626254933936853</v>
+        <v>11.956816749574525</v>
       </c>
       <c r="PW1">
-        <v>15.303512030465582</v>
+        <v>16.110780397191924</v>
       </c>
       <c r="PX1">
-        <v>13.850294505484806</v>
+        <v>14.348419083883865</v>
       </c>
       <c r="PY1">
-        <v>16.975940788645829</v>
+        <v>17.347481411193556</v>
       </c>
       <c r="PZ1">
-        <v>10.512916600782741</v>
+        <v>11.396202347705541</v>
       </c>
       <c r="QA1">
-        <v>13.360673651736422</v>
+        <v>12.747953711291917</v>
       </c>
       <c r="QB1">
-        <v>17.6961803413204</v>
+        <v>16.697916182557794</v>
       </c>
       <c r="QC1">
-        <v>7.4110275896155793</v>
+        <v>6.6525316475049632</v>
       </c>
       <c r="QD1">
-        <v>13.113959400015785</v>
+        <v>12.245015316806731</v>
       </c>
       <c r="QE1">
-        <v>11.526564252692836</v>
+        <v>11.114142601741561</v>
       </c>
       <c r="QF1">
-        <v>12.426929210406691</v>
+        <v>11.667945222194357</v>
       </c>
       <c r="QG1">
-        <v>10.533999763159379</v>
+        <v>10.894425238238437</v>
       </c>
       <c r="QH1">
-        <v>9.9816432707225147</v>
+        <v>10.791437457060333</v>
       </c>
       <c r="QI1">
-        <v>14.7320370135717</v>
+        <v>13.733617383561223</v>
       </c>
       <c r="QJ1">
-        <v>4.5279734078956633</v>
+        <v>6.8448277377517401</v>
       </c>
       <c r="QK1">
-        <v>7.4053037657553666</v>
+        <v>8.1199609484525617</v>
       </c>
       <c r="QL1">
-        <v>12.148130486453562</v>
+        <v>11.884480786043252</v>
       </c>
       <c r="QM1">
-        <v>15.613261226044287</v>
+        <v>14.619606178497158</v>
       </c>
       <c r="QN1">
-        <v>12.037434815709123</v>
+        <v>11.074704971334103</v>
       </c>
       <c r="QO1">
-        <v>7.9408446491093523</v>
+        <v>7.2668664376968577</v>
       </c>
       <c r="QP1">
-        <v>8.0925013612884893</v>
+        <v>7.9131266654177246</v>
       </c>
       <c r="QQ1">
-        <v>10.102062609880466</v>
+        <v>14.733871482500419</v>
       </c>
       <c r="QR1">
-        <v>8.6957118005266469</v>
+        <v>8.625100538283295</v>
       </c>
       <c r="QS1">
-        <v>14.345173772807005</v>
+        <v>16.115440123461447</v>
       </c>
       <c r="QT1">
-        <v>13.589333716700455</v>
+        <v>12.591274610636413</v>
       </c>
       <c r="QU1">
-        <v>15.535644952410022</v>
+        <v>14.617487342469946</v>
       </c>
       <c r="QV1">
-        <v>6.8548141188296867</v>
+        <v>7.8778049238955079</v>
       </c>
       <c r="QW1">
-        <v>10.707582876638645</v>
+        <v>10.081834632307148</v>
       </c>
       <c r="QX1">
-        <v>7.5364729370150432</v>
+        <v>6.9448007058704633</v>
       </c>
       <c r="QY1">
-        <v>8.5523161043194822</v>
+        <v>8.6898653533445724</v>
       </c>
       <c r="QZ1">
-        <v>6.14708153772321</v>
+        <v>7.9083443275418048</v>
       </c>
       <c r="RA1">
-        <v>6.814383645304769</v>
+        <v>6.33240452782543</v>
       </c>
       <c r="RB1">
-        <v>18.11401600556534</v>
+        <v>17.315886743088697</v>
       </c>
       <c r="RC1">
-        <v>12.268847306797145</v>
+        <v>12.658316843731065</v>
       </c>
       <c r="RD1">
-        <v>6.908652707608514</v>
+        <v>6.0077961025575091</v>
       </c>
       <c r="RE1">
-        <v>5.2665510960257116</v>
+        <v>5.8166784704056127</v>
       </c>
       <c r="RF1">
-        <v>17.104119333226528</v>
+        <v>17.944927370509411</v>
       </c>
       <c r="RG1">
-        <v>7.674705998370567</v>
+        <v>7.0760623520242039</v>
       </c>
       <c r="RH1">
-        <v>3.5973010114241655</v>
+        <v>4.1167364937433231</v>
       </c>
       <c r="RI1">
-        <v>19.136231937383869</v>
+        <v>18.198012239500233</v>
       </c>
       <c r="RJ1">
-        <v>18.175554657879687</v>
+        <v>17.188839356990282</v>
       </c>
       <c r="RK1">
-        <v>10.444821407902724</v>
+        <v>9.4867482386029192</v>
       </c>
       <c r="RL1">
-        <v>7.6684757085456638</v>
+        <v>7.0015258665551308</v>
       </c>
       <c r="RM1">
-        <v>5.1426870721010403</v>
+        <v>4.4200451586082874</v>
       </c>
       <c r="RN1">
-        <v>9.3323108425778383</v>
+        <v>9.2446255216617423</v>
       </c>
       <c r="RO1">
-        <v>2.3806264471208061</v>
+        <v>4.02611422259187</v>
       </c>
       <c r="RP1">
-        <v>5.3633898621245164</v>
+        <v>5.3569381482191272</v>
       </c>
       <c r="RQ1">
-        <v>4.9502264940831964</v>
+        <v>4.9079956699513918</v>
       </c>
       <c r="RR1">
-        <v>13.974563486279543</v>
+        <v>13.250620265073586</v>
       </c>
       <c r="RS1">
-        <v>5.0725105052612163</v>
+        <v>4.0725694043693803</v>
       </c>
       <c r="RT1">
-        <v>16.086939661491932</v>
+        <v>15.445882780401263</v>
       </c>
       <c r="RU1">
-        <v>4.0585148167324236</v>
+        <v>5.3775505188285049</v>
       </c>
       <c r="RV1">
-        <v>5.6262327815599837</v>
+        <v>6.4303747323074392</v>
       </c>
       <c r="RW1">
-        <v>5.6051060658558809</v>
+        <v>6.768947908891457</v>
       </c>
       <c r="RX1">
-        <v>9.4491392626101174</v>
+        <v>9.9327796662062902</v>
       </c>
       <c r="RY1">
-        <v>7.1701661124991087</v>
+        <v>6.3752011503033135</v>
       </c>
       <c r="RZ1">
-        <v>11.918347514099473</v>
+        <v>13.77826120247015</v>
       </c>
       <c r="SA1">
-        <v>3.8547448112104257</v>
+        <v>3.0800549978407212</v>
       </c>
       <c r="SB1">
-        <v>10.701686272196511</v>
+        <v>9.7325912728073458</v>
       </c>
       <c r="SC1">
-        <v>9.7729424263513778</v>
+        <v>10.580507607544789</v>
       </c>
       <c r="SD1">
-        <v>4.7777547966469367</v>
+        <v>7.378932959020581</v>
       </c>
       <c r="SE1">
-        <v>3.4935375981165908</v>
+        <v>3.3215159673663655</v>
       </c>
       <c r="SF1">
-        <v>12.197938149967879</v>
+        <v>11.329883735756574</v>
       </c>
       <c r="SG1">
-        <v>10.568058136884932</v>
+        <v>10.553844923973269</v>
       </c>
       <c r="SH1">
-        <v>13.375837693199195</v>
+        <v>13.146598907239229</v>
       </c>
       <c r="SI1">
-        <v>4.9489892510632814</v>
+        <v>4.2804803110164888</v>
       </c>
       <c r="SJ1">
-        <v>3.8541295735495611</v>
+        <v>3.7651361281593365</v>
       </c>
       <c r="SK1">
-        <v>8.9223002599303012</v>
+        <v>8.3730212959515544</v>
       </c>
       <c r="SL1">
-        <v>9.5420971380080353</v>
+        <v>8.5546692284331911</v>
       </c>
       <c r="SM1">
-        <v>10.765210259763069</v>
+        <v>9.7850124589257028</v>
       </c>
       <c r="SN1">
-        <v>10.625498184685199</v>
+        <v>9.6670666359906079</v>
       </c>
       <c r="SO1">
-        <v>11.246897733408913</v>
+        <v>10.303260127035461</v>
       </c>
       <c r="SP1">
-        <v>8.4389160722344663</v>
+        <v>10.023443155229179</v>
       </c>
       <c r="SQ1">
-        <v>9.7954709828194275</v>
+        <v>8.8020473678812934</v>
       </c>
       <c r="SR1">
-        <v>18.444343039135077</v>
+        <v>17.482027003585749</v>
       </c>
       <c r="SS1">
-        <v>14.786689207076288</v>
+        <v>14.359461427857163</v>
       </c>
       <c r="ST1">
-        <v>10.12073373300386</v>
+        <v>9.222479224596885</v>
       </c>
       <c r="SU1">
-        <v>12.295941967605007</v>
+        <v>11.798192470776272</v>
       </c>
       <c r="SV1">
-        <v>11.715265137604263</v>
+        <v>12.162944865296762</v>
       </c>
       <c r="SW1">
-        <v>11.543720484575074</v>
+        <v>12.824141293119592</v>
       </c>
       <c r="SX1">
-        <v>6.5916524774475427</v>
+        <v>5.7360327204814894</v>
       </c>
       <c r="SY1">
-        <v>24.353968073057743</v>
+        <v>24.02694788206616</v>
       </c>
       <c r="SZ1">
-        <v>8.2300864349765703</v>
+        <v>7.8013755260101103</v>
       </c>
       <c r="TA1">
-        <v>3.7748939639946655</v>
+        <v>2.7965679315575285</v>
       </c>
       <c r="TB1">
-        <v>6.2815365817086741</v>
+        <v>6.1901941705611918</v>
       </c>
       <c r="TC1">
-        <v>7.3088815077667606</v>
+        <v>6.31518650912271</v>
       </c>
       <c r="TD1">
-        <v>16.969720277843322</v>
+        <v>16.717851347734435</v>
       </c>
       <c r="TE1">
-        <v>15.131062677702605</v>
+        <v>14.195307121735631</v>
       </c>
       <c r="TF1">
-        <v>6.3061877179225831</v>
+        <v>6.6324380706386812</v>
       </c>
       <c r="TG1">
-        <v>3.6606831326893019</v>
+        <v>3.481753559563793</v>
       </c>
       <c r="TH1">
-        <v>10.06497389934092</v>
+        <v>11.00914122266407</v>
       </c>
       <c r="TI1">
-        <v>4.9703879391087522</v>
+        <v>4.5407077046730784</v>
       </c>
       <c r="TJ1">
-        <v>6.104653394876113</v>
+        <v>6.4288000653970689</v>
       </c>
       <c r="TK1">
-        <v>4.1392384204868913</v>
+        <v>4.0941260387095006</v>
       </c>
       <c r="TL1">
-        <v>7.1151796030917573</v>
+        <v>6.5335693628192111</v>
       </c>
       <c r="TM1">
-        <v>16.697443207210426</v>
+        <v>15.908349513096756</v>
       </c>
       <c r="TN1">
-        <v>7.1708412208639425</v>
+        <v>7.7956833280998046</v>
       </c>
       <c r="TO1">
-        <v>12.319525147370484</v>
+        <v>13.725979999300042</v>
       </c>
       <c r="TP1">
-        <v>13.037684550587263</v>
+        <v>13.225777613970092</v>
       </c>
       <c r="TQ1">
-        <v>13.857750929653786</v>
+        <v>12.858119775722427</v>
       </c>
       <c r="TR1">
-        <v>9.014471202114116</v>
+        <v>8.0322071471901957</v>
       </c>
       <c r="TS1">
-        <v>12.593982077020504</v>
+        <v>12.625149741664737</v>
       </c>
       <c r="TT1">
-        <v>6.3603874930295898</v>
+        <v>7.120356036858527</v>
       </c>
       <c r="TU1">
-        <v>8.8336626713245359</v>
+        <v>7.9130300606343074</v>
       </c>
       <c r="TV1">
-        <v>8.9187128795119861</v>
+        <v>8.0657039784371101</v>
       </c>
       <c r="TW1">
-        <v>11.285548625921866</v>
+        <v>10.735143802432702</v>
       </c>
       <c r="TX1">
-        <v>9.6889251705168711</v>
+        <v>8.6889727826608052</v>
       </c>
       <c r="TY1">
-        <v>10.627551046336302</v>
+        <v>11.187674676518544</v>
       </c>
       <c r="TZ1">
-        <v>13.14383438102065</v>
+        <v>12.180821580391338</v>
       </c>
       <c r="UA1">
-        <v>3.688015952184263</v>
+        <v>3.2947768200542678</v>
       </c>
       <c r="UB1">
-        <v>13.613953906954078</v>
+        <v>12.625102643117526</v>
       </c>
       <c r="UC1">
-        <v>13.320690531719219</v>
+        <v>12.58206619491456</v>
       </c>
       <c r="UD1">
-        <v>6.7321491476985518</v>
+        <v>8.2919630514766993</v>
       </c>
       <c r="UE1">
-        <v>10.174791972928976</v>
+        <v>13.103949107215787</v>
       </c>
       <c r="UF1">
-        <v>5.9036904982436678</v>
+        <v>6.5845839226739722</v>
       </c>
       <c r="UG1">
-        <v>6.6851005828754992</v>
+        <v>6.0455644963434558</v>
       </c>
       <c r="UH1">
-        <v>7.1492834627752302</v>
+        <v>8.8038111078816126</v>
       </c>
       <c r="UI1">
-        <v>10.491255189925342</v>
+        <v>11.057114951058551</v>
       </c>
       <c r="UJ1">
-        <v>10.553131155788847</v>
+        <v>13.787029158008774</v>
       </c>
       <c r="UK1">
-        <v>13.643088096384671</v>
+        <v>12.688953090277842</v>
       </c>
       <c r="UL1">
-        <v>4.2132771690738657</v>
+        <v>4.1342967945151239</v>
       </c>
       <c r="UM1">
-        <v>7.0214137975296769</v>
+        <v>7.880287144473022</v>
       </c>
       <c r="UN1">
-        <v>8.8921178330577693</v>
+        <v>7.9118213729662141</v>
       </c>
       <c r="UO1">
-        <v>4.3395863368863692</v>
+        <v>3.535874147993038</v>
       </c>
       <c r="UP1">
-        <v>10.896157436231221</v>
+        <v>10.667839635951093</v>
       </c>
       <c r="UQ1">
-        <v>5.7213848431424701</v>
+        <v>6.1312421644455606</v>
       </c>
       <c r="UR1">
-        <v>5.4329362400737349</v>
+        <v>5.9818371104722177</v>
       </c>
       <c r="US1">
-        <v>11.590247948411761</v>
+        <v>10.89944500884188</v>
       </c>
       <c r="UT1">
-        <v>6.4746981717638379</v>
+        <v>9.4600134110125715</v>
       </c>
       <c r="UU1">
-        <v>13.12139800748731</v>
+        <v>12.426709042403381</v>
       </c>
       <c r="UV1">
-        <v>2.7375902473264162</v>
+        <v>3.5059784098185061</v>
       </c>
       <c r="UW1">
-        <v>8.4214121836424383</v>
+        <v>9.2040945640967795</v>
       </c>
       <c r="UX1">
-        <v>9.5530609650079121</v>
+        <v>9.1574298988683296</v>
       </c>
       <c r="UY1">
-        <v>9.8126546190411972</v>
+        <v>9.642519800479711</v>
       </c>
       <c r="UZ1">
-        <v>15.101989552511341</v>
+        <v>14.57079558173891</v>
       </c>
       <c r="VA1">
-        <v>15.299878531106657</v>
+        <v>15.474077782686168</v>
       </c>
       <c r="VB1">
-        <v>17.244429795545592</v>
+        <v>16.528009959928191</v>
       </c>
       <c r="VC1">
-        <v>20.315783045458495</v>
+        <v>19.60803719340181</v>
       </c>
       <c r="VD1">
-        <v>9.3147627167935809</v>
+        <v>9.2104633077916986</v>
       </c>
       <c r="VE1">
-        <v>6.4758949231193768</v>
+        <v>5.5674991377329759</v>
       </c>
       <c r="VF1">
-        <v>8.5518073198785949</v>
+        <v>8.1851891644384072</v>
       </c>
       <c r="VG1">
-        <v>11.111881369824586</v>
+        <v>13.899363253159313</v>
       </c>
       <c r="VH1">
-        <v>11.429767470460199</v>
+        <v>10.946527014452492</v>
       </c>
       <c r="VI1">
-        <v>8.6146456204393793</v>
+        <v>7.6547998910407351</v>
       </c>
       <c r="VJ1">
-        <v>10.530996200055959</v>
+        <v>11.61624419894159</v>
       </c>
       <c r="VK1">
-        <v>9.6940469955408908</v>
+        <v>9.8592485441074302</v>
       </c>
       <c r="VL1">
-        <v>8.9124465491390392</v>
+        <v>11.266309523726164</v>
       </c>
       <c r="VM1">
-        <v>10.485583726742894</v>
+        <v>11.063154853746447</v>
       </c>
       <c r="VN1">
-        <v>5.6400907912479763</v>
+        <v>5.5328257169848776</v>
       </c>
       <c r="VO1">
-        <v>4.479572336187263</v>
+        <v>4.9409393672632671</v>
       </c>
       <c r="VP1">
-        <v>12.610031564042803</v>
+        <v>12.58184295551488</v>
       </c>
       <c r="VQ1">
-        <v>16.853814968006365</v>
+        <v>16.098074866202552</v>
       </c>
       <c r="VR1">
-        <v>3.8202613822643019</v>
+        <v>5.0599847054727842</v>
       </c>
       <c r="VS1">
-        <v>16.395413653107482</v>
+        <v>16.135935332725644</v>
       </c>
       <c r="VT1">
-        <v>7.594169666701478</v>
+        <v>8.5869671771040288</v>
       </c>
       <c r="VU1">
-        <v>10.64486861702591</v>
+        <v>11.212673936269905</v>
       </c>
       <c r="VV1">
-        <v>20.441022339757041</v>
+        <v>19.513216868922079</v>
       </c>
       <c r="VW1">
-        <v>8.0777158964281703</v>
+        <v>7.642018619677831</v>
       </c>
       <c r="VX1">
-        <v>7.9697851194200613</v>
+        <v>11.12105143984866</v>
       </c>
       <c r="VY1">
-        <v>10.815589603102335</v>
+        <v>10.617424889757554</v>
       </c>
       <c r="VZ1">
-        <v>16.127764448016187</v>
+        <v>15.594567581986542</v>
       </c>
       <c r="WA1">
-        <v>12.783742230943302</v>
+        <v>11.78830650422503</v>
       </c>
       <c r="WB1">
-        <v>13.899835318993068</v>
+        <v>12.93962929344257</v>
       </c>
       <c r="WC1">
-        <v>8.0365551161022744</v>
+        <v>9.0698856589353873</v>
       </c>
       <c r="WD1">
-        <v>7.6846935378927554</v>
+        <v>7.2666425972085618</v>
       </c>
       <c r="WE1">
-        <v>8.3306003336374506</v>
+        <v>7.3336652022030497</v>
       </c>
       <c r="WF1">
-        <v>15.43143167847334</v>
+        <v>14.607035499931978</v>
       </c>
       <c r="WG1">
-        <v>4.034492330479722</v>
+        <v>3.5303359157508383</v>
       </c>
       <c r="WH1">
-        <v>6.3940150803625357</v>
+        <v>7.4671323966163179</v>
       </c>
       <c r="WI1">
-        <v>8.6974120482692818</v>
+        <v>7.7118899362333497</v>
       </c>
       <c r="WJ1">
-        <v>16.020905711836246</v>
+        <v>15.469928705763106</v>
       </c>
       <c r="WK1">
-        <v>8.8276058913305171</v>
+        <v>9.202425299548894</v>
       </c>
       <c r="WL1">
-        <v>9.748436047387063</v>
+        <v>8.7484360883846399</v>
       </c>
       <c r="WM1">
-        <v>10.402051179833705</v>
+        <v>10.017808133468307</v>
       </c>
       <c r="WN1">
-        <v>8.9866113034179769</v>
+        <v>7.9869891383186467</v>
       </c>
       <c r="WO1">
-        <v>7.2724435968389063</v>
+        <v>6.8892160523927348</v>
       </c>
       <c r="WP1">
-        <v>10.057164452521738</v>
+        <v>10.299985339502232</v>
       </c>
       <c r="WQ1">
-        <v>7.5988317418101339</v>
+        <v>6.8191284951008715</v>
       </c>
       <c r="WR1">
-        <v>12.945813930073847</v>
+        <v>12.092934120839509</v>
       </c>
       <c r="WS1">
-        <v>3.5301895855121757</v>
+        <v>2.8147503728097227</v>
       </c>
       <c r="WT1">
-        <v>7.7517287434076163</v>
+        <v>10.112543532991438</v>
       </c>
       <c r="WU1">
-        <v>3.8824086055351299</v>
+        <v>4.5869331453066078</v>
       </c>
       <c r="WV1">
-        <v>9.1271004015628794</v>
+        <v>8.5084746819159847</v>
       </c>
       <c r="WW1">
-        <v>5.5805767432253326</v>
+        <v>5.2077391888656361</v>
       </c>
       <c r="WX1">
-        <v>14.838430681737528</v>
+        <v>14.840730997156065</v>
       </c>
       <c r="WY1">
-        <v>12.007465370612522</v>
+        <v>11.053107041180048</v>
       </c>
       <c r="WZ1">
-        <v>2.1335081808233296</v>
+        <v>4.2808465099705053</v>
       </c>
       <c r="XA1">
-        <v>11.23737131332167</v>
+        <v>10.252395708358286</v>
       </c>
       <c r="XB1">
-        <v>4.2114831590742288</v>
+        <v>4.6933508269388078</v>
       </c>
       <c r="XC1">
-        <v>8.1088818468442607</v>
+        <v>7.1230113188558066</v>
       </c>
       <c r="XD1">
-        <v>7.3169514334365626</v>
+        <v>6.4636206873929076</v>
       </c>
       <c r="XE1">
-        <v>7.9930770781942293</v>
+        <v>7.1302683977592416</v>
       </c>
       <c r="XF1">
-        <v>13.429986910229301</v>
+        <v>14.128559823063476</v>
       </c>
       <c r="XG1">
-        <v>6.1330220086647902</v>
+        <v>5.3947967337481675</v>
       </c>
       <c r="XH1">
-        <v>9.9062991248372647</v>
+        <v>9.0129022794952327</v>
       </c>
       <c r="XI1">
-        <v>9.7862414099444397</v>
+        <v>9.3790749600066476</v>
       </c>
       <c r="XJ1">
-        <v>9.7870534052468159</v>
+        <v>9.0959011102174028</v>
       </c>
       <c r="XK1">
-        <v>3.8171553194526853</v>
+        <v>3.133311147344596</v>
       </c>
       <c r="XL1">
-        <v>18.066213970246896</v>
+        <v>17.066280963908728</v>
       </c>
       <c r="XM1">
-        <v>11.263821445707327</v>
+        <v>12.002974936339921</v>
       </c>
       <c r="XN1">
-        <v>14.124904918633188</v>
+        <v>13.533035670837068</v>
       </c>
       <c r="XO1">
-        <v>5.6659743801255047</v>
+        <v>5.8720002268327853</v>
       </c>
       <c r="XP1">
-        <v>7.0750334712298928</v>
+        <v>6.3963580692587207</v>
       </c>
       <c r="XQ1">
-        <v>7.7567500974895562</v>
+        <v>7.243111053100634</v>
       </c>
       <c r="XR1">
-        <v>7.8223141136483765</v>
+        <v>8.7388611329573251</v>
       </c>
       <c r="XS1">
-        <v>12.062509748334103</v>
+        <v>11.488911075099461</v>
       </c>
       <c r="XT1">
-        <v>6.0729183436105512</v>
+        <v>5.1598383368526495</v>
       </c>
       <c r="XU1">
-        <v>6.1324588306129106</v>
+        <v>8.7992681799492107</v>
       </c>
       <c r="XV1">
-        <v>7.6480948365254715</v>
+        <v>7.7186806503210192</v>
       </c>
       <c r="XW1">
-        <v>20.413924608244329</v>
+        <v>19.771707120660402</v>
       </c>
       <c r="XX1">
-        <v>13.002986119425742</v>
+        <v>15.175566811606121</v>
       </c>
       <c r="XY1">
-        <v>10.139299067812992</v>
+        <v>9.4583641137226575</v>
       </c>
       <c r="XZ1">
-        <v>10.74495573495439</v>
+        <v>13.586323557743682</v>
       </c>
       <c r="YA1">
-        <v>23.050777947527756</v>
+        <v>22.116268723335409</v>
       </c>
       <c r="YB1">
-        <v>8.0149150942984306</v>
+        <v>7.0292503368981016</v>
       </c>
       <c r="YC1">
-        <v>10.412301472999179</v>
+        <v>9.4296165400548269</v>
       </c>
       <c r="YD1">
-        <v>10.768460224601659</v>
+        <v>10.237990397232693</v>
       </c>
       <c r="YE1">
-        <v>7.1844018262363054</v>
+        <v>6.378303723117841</v>
       </c>
       <c r="YF1">
-        <v>5.3411699410576405</v>
+        <v>5.5209196983131195</v>
       </c>
       <c r="YG1">
-        <v>8.9519315092371343</v>
+        <v>10.252785716699805</v>
       </c>
       <c r="YH1">
-        <v>10.523845847323603</v>
+        <v>10.051265832534956</v>
       </c>
       <c r="YI1">
-        <v>22.178489453929437</v>
+        <v>21.844778405546563</v>
       </c>
       <c r="YJ1">
-        <v>10.662067061764011</v>
+        <v>11.544003175338432</v>
       </c>
       <c r="YK1">
-        <v>12.778915907081068</v>
+        <v>14.28280916106841</v>
       </c>
       <c r="YL1">
-        <v>4.7170331097819069</v>
+        <v>4.3976090123462139</v>
       </c>
       <c r="YM1">
-        <v>18.277621980587419</v>
+        <v>17.511793240421799</v>
       </c>
       <c r="YN1">
-        <v>19.629458671822331</v>
+        <v>19.154443834626882</v>
       </c>
       <c r="YO1">
-        <v>6.2131922912999249</v>
+        <v>5.3171443241642393</v>
       </c>
       <c r="YP1">
-        <v>12.254218065192514</v>
+        <v>12.365714096223016</v>
       </c>
       <c r="YQ1">
-        <v>20.225722942183083</v>
+        <v>19.228192599216548</v>
       </c>
       <c r="YR1">
-        <v>13.27124568485773</v>
+        <v>14.014504044478706</v>
       </c>
       <c r="YS1">
-        <v>7.2290355480897741</v>
+        <v>6.3766067180460793</v>
       </c>
       <c r="YT1">
-        <v>9.4291491123365958</v>
+        <v>11.290886998823991</v>
       </c>
       <c r="YU1">
-        <v>5.0472118017955196</v>
+        <v>5.7296707112323757</v>
       </c>
       <c r="YV1">
-        <v>4.2307036437426797</v>
+        <v>4.2780711021172486</v>
       </c>
       <c r="YW1">
-        <v>3.961638754075083</v>
+        <v>3.4293332480493355</v>
       </c>
       <c r="YX1">
-        <v>8.9499302566012879</v>
+        <v>8.6699143364868352</v>
       </c>
       <c r="YY1">
-        <v>7.6011436954615661</v>
+        <v>6.606264394894553</v>
       </c>
       <c r="YZ1">
-        <v>11.322063140229098</v>
+        <v>11.33077965382058</v>
       </c>
       <c r="ZA1">
-        <v>8.0310573511949279</v>
+        <v>7.3081045466388659</v>
       </c>
       <c r="ZB1">
-        <v>5.8295874419804665</v>
+        <v>5.6919612592222366</v>
       </c>
       <c r="ZC1">
-        <v>4.8499584567590492</v>
+        <v>3.8962357794685194</v>
       </c>
       <c r="ZD1">
-        <v>11.740730229537913</v>
+        <v>12.108521060072388</v>
       </c>
       <c r="ZE1">
-        <v>12.443822244965954</v>
+        <v>11.455782379373151</v>
       </c>
       <c r="ZF1">
-        <v>23.397493753355032</v>
+        <v>23.845788456858806</v>
       </c>
       <c r="ZG1">
-        <v>18.365306145340028</v>
+        <v>17.681774565458237</v>
       </c>
       <c r="ZH1">
-        <v>12.806014170822877</v>
+        <v>12.134364100254212</v>
       </c>
       <c r="ZI1">
-        <v>1.7612246686851294</v>
+        <v>1.8918867590464825</v>
       </c>
       <c r="ZJ1">
-        <v>23.021557277760536</v>
+        <v>29.113081357901301</v>
       </c>
       <c r="ZK1">
-        <v>7.417045018585168</v>
+        <v>6.4575841130967024</v>
       </c>
       <c r="ZL1">
-        <v>18.619156749730323</v>
+        <v>17.761253953615821</v>
       </c>
       <c r="ZM1">
-        <v>12.586804935123432</v>
+        <v>12.278543396021202</v>
       </c>
       <c r="ZN1">
-        <v>10.049101380265268</v>
+        <v>10.473664552974887</v>
       </c>
       <c r="ZO1">
-        <v>15.191638066575484</v>
+        <v>14.192907097070457</v>
       </c>
       <c r="ZP1">
-        <v>7.6586625507714992</v>
+        <v>6.9551676102483988</v>
       </c>
       <c r="ZQ1">
-        <v>6.1824931204222064</v>
+        <v>5.9874871763565816</v>
       </c>
       <c r="ZR1">
-        <v>3.9861909919714176</v>
+        <v>3.2769058678082517</v>
       </c>
       <c r="ZS1">
-        <v>10.993772655797649</v>
+        <v>10.013608650048383</v>
       </c>
       <c r="ZT1">
-        <v>10.111398178169216</v>
+        <v>9.2903367872020333</v>
       </c>
       <c r="ZU1">
-        <v>12.703946061590081</v>
+        <v>11.747799554624875</v>
       </c>
       <c r="ZV1">
-        <v>5.5357957582577475</v>
+        <v>6.0771430355194287</v>
       </c>
       <c r="ZW1">
-        <v>8.244643463450096</v>
+        <v>7.4254360585115062</v>
       </c>
       <c r="ZX1">
-        <v>11.225931320727094</v>
+        <v>12.246111185263917</v>
       </c>
       <c r="ZY1">
-        <v>16.165703666441605</v>
+        <v>15.433842291456781</v>
       </c>
       <c r="ZZ1">
-        <v>7.4866692684374954</v>
+        <v>6.8634285592943494</v>
       </c>
       <c r="AAA1">
-        <v>11.960272547333471</v>
+        <v>10.97872466972705</v>
       </c>
       <c r="AAB1">
-        <v>8.366612144460202</v>
+        <v>7.6540265431853669</v>
       </c>
       <c r="AAC1">
-        <v>6.0641707813263093</v>
+        <v>5.1581999156964056</v>
       </c>
       <c r="AAD1">
-        <v>8.1729186167858376</v>
+        <v>8.7819721040744056</v>
       </c>
       <c r="AAE1">
-        <v>9.4855968055585365</v>
+        <v>9.8248080566114684</v>
       </c>
       <c r="AAF1">
-        <v>5.2660923921722063</v>
+        <v>5.7646288114067072</v>
       </c>
       <c r="AAG1">
-        <v>12.763204017943576</v>
+        <v>11.940036392990255</v>
       </c>
       <c r="AAH1">
-        <v>1.8071365208069867</v>
+        <v>2.5053054750716575</v>
       </c>
       <c r="AAI1">
-        <v>2.1677747673247989</v>
+        <v>2.4976339027483587</v>
       </c>
       <c r="AAJ1">
-        <v>10.688224011712268</v>
+        <v>11.281000333203028</v>
       </c>
       <c r="AAK1">
-        <v>21.126678720303097</v>
+        <v>20.130764231009856</v>
       </c>
       <c r="AAL1">
-        <v>3.559256843511259</v>
+        <v>4.2737318948961232</v>
       </c>
       <c r="AAM1">
-        <v>7.2624001977795194</v>
+        <v>7.5286036198939836</v>
       </c>
       <c r="AAN1">
-        <v>9.5827797321758172</v>
+        <v>8.7534039118311711</v>
       </c>
       <c r="AAO1">
-        <v>6.9617806972016094</v>
+        <v>8.0742003899981505</v>
       </c>
       <c r="AAP1">
-        <v>8.4369701356304532</v>
+        <v>8.5684809167762612</v>
       </c>
       <c r="AAQ1">
-        <v>26.010330988475573</v>
+        <v>25.012922406877109</v>
       </c>
       <c r="AAR1">
-        <v>10.199104028001489</v>
+        <v>9.8344849316102732</v>
       </c>
       <c r="AAS1">
-        <v>7.2263297751983089</v>
+        <v>8.8649448544732863</v>
       </c>
       <c r="AAT1">
-        <v>10.619262981611534</v>
+        <v>9.6335995410275324</v>
       </c>
       <c r="AAU1">
-        <v>3.9101012456431681</v>
+        <v>4.6426057732193282</v>
       </c>
       <c r="AAV1">
-        <v>9.739908640854928</v>
+        <v>9.1931532899801702</v>
       </c>
       <c r="AAW1">
-        <v>11.881056205234485</v>
+        <v>10.881060306601768</v>
       </c>
       <c r="AAX1">
-        <v>3.4090281093594861</v>
+        <v>3.5130258856961518</v>
       </c>
       <c r="AAY1">
-        <v>12.914822919175469</v>
+        <v>13.597216126055649</v>
       </c>
       <c r="AAZ1">
-        <v>12.83209129943987</v>
+        <v>12.057070535628846</v>
       </c>
       <c r="ABA1">
-        <v>9.7537063109013715</v>
+        <v>11.471424486106653</v>
       </c>
       <c r="ABB1">
-        <v>9.4143188722373701</v>
+        <v>10.034336387267629</v>
       </c>
       <c r="ABC1">
-        <v>11.524951848060725</v>
+        <v>10.530633496136314</v>
       </c>
       <c r="ABD1">
-        <v>7.8553288534609136</v>
+        <v>8.5765423463867219</v>
       </c>
       <c r="ABE1">
-        <v>10.853294301543819</v>
+        <v>9.8705283339233265</v>
       </c>
       <c r="ABF1">
-        <v>16.713863086323371</v>
+        <v>16.857179428382487</v>
       </c>
       <c r="ABG1">
-        <v>9.3149046210620963</v>
+        <v>8.7996050445886596</v>
       </c>
       <c r="ABH1">
-        <v>6.0973028778044176</v>
+        <v>5.144209336472767</v>
       </c>
       <c r="ABI1">
-        <v>23.538746906514806</v>
+        <v>24.333995964984794</v>
       </c>
       <c r="ABJ1">
-        <v>8.2056717573299451</v>
+        <v>7.3442888349175677</v>
       </c>
       <c r="ABK1">
-        <v>5.858130520624834</v>
+        <v>9.3861035751280877</v>
       </c>
       <c r="ABL1">
-        <v>14.93638947866766</v>
+        <v>14.944955134698485</v>
       </c>
       <c r="ABM1">
-        <v>11.13338792891388</v>
+        <v>10.186527507327188</v>
       </c>
       <c r="ABN1">
-        <v>20.3275507664728</v>
+        <v>23.75265150667305</v>
       </c>
       <c r="ABO1">
-        <v>13.097503303440682</v>
+        <v>12.099990626638638</v>
       </c>
       <c r="ABP1">
-        <v>6.1806174591005592</v>
+        <v>6.6177223859436118</v>
       </c>
       <c r="ABQ1">
-        <v>13.144994880208882</v>
+        <v>12.185906921204751</v>
       </c>
       <c r="ABR1">
-        <v>7.137753260331408</v>
+        <v>6.9539862446686396</v>
       </c>
       <c r="ABS1">
-        <v>4.7576511880155916</v>
+        <v>3.996002922060689</v>
       </c>
       <c r="ABT1">
-        <v>8.879432099780594</v>
+        <v>8.6979521299080389</v>
       </c>
       <c r="ABU1">
-        <v>12.908102272740946</v>
+        <v>11.940076307700791</v>
       </c>
       <c r="ABV1">
-        <v>12.920548024115039</v>
+        <v>12.429763554801433</v>
       </c>
       <c r="ABW1">
-        <v>8.447568134889913</v>
+        <v>7.6299024089669336</v>
       </c>
       <c r="ABX1">
-        <v>9.2599570214334435</v>
+        <v>8.2746762301471968</v>
       </c>
       <c r="ABY1">
-        <v>16.634730211768805</v>
+        <v>16.088772628171988</v>
       </c>
       <c r="ABZ1">
-        <v>20.888231186079668</v>
+        <v>19.932990541355473</v>
       </c>
       <c r="ACA1">
-        <v>7.5842598739052427</v>
+        <v>8.1149472597305436</v>
       </c>
       <c r="ACB1">
-        <v>8.6845149467057272</v>
+        <v>8.7336581731517136</v>
       </c>
       <c r="ACC1">
-        <v>19.224578725807426</v>
+        <v>19.495025582610687</v>
       </c>
       <c r="ACD1">
-        <v>10.174026060183065</v>
+        <v>11.975789486702688</v>
       </c>
       <c r="ACE1">
-        <v>5.7012496642877295</v>
+        <v>4.7444772582765733</v>
       </c>
       <c r="ACF1">
-        <v>8.6692901171952617</v>
+        <v>10.424302596559752</v>
       </c>
       <c r="ACG1">
-        <v>8.4754856625552897</v>
+        <v>7.5338249415737257</v>
       </c>
       <c r="ACH1">
-        <v>12.744776275763904</v>
+        <v>12.107376010523151</v>
       </c>
       <c r="ACI1">
-        <v>6.2773710540627974</v>
+        <v>5.5514221312600753</v>
       </c>
       <c r="ACJ1">
-        <v>9.090053662830023</v>
+        <v>10.810556997139191</v>
       </c>
       <c r="ACK1">
-        <v>10.514133423233069</v>
+        <v>9.5225088525430497</v>
       </c>
       <c r="ACL1">
-        <v>18.013241986011092</v>
+        <v>24.43851827511449</v>
       </c>
       <c r="ACM1">
-        <v>5.7229218901569956</v>
+        <v>4.7230453432142472</v>
       </c>
       <c r="ACN1">
-        <v>4.8448686176558358</v>
+        <v>4.8896782797742908</v>
       </c>
       <c r="ACO1">
-        <v>12.127196127300358</v>
+        <v>11.137251022032244</v>
       </c>
       <c r="ACP1">
-        <v>10.403864326665641</v>
+        <v>10.259890078969539</v>
       </c>
       <c r="ACQ1">
-        <v>20.622021370194169</v>
+        <v>20.120762707460798</v>
       </c>
       <c r="ACR1">
-        <v>4.8219628892731663</v>
+        <v>6.8085843553627594</v>
       </c>
       <c r="ACS1">
-        <v>7.4739061687841701</v>
+        <v>6.978206579819406</v>
       </c>
       <c r="ACT1">
-        <v>6.2161556271487051</v>
+        <v>6.5920943895880164</v>
       </c>
       <c r="ACU1">
-        <v>12.772412297530693</v>
+        <v>11.946950088428501</v>
       </c>
       <c r="ACV1">
-        <v>15.155006940268482</v>
+        <v>14.157531980163371</v>
       </c>
       <c r="ACW1">
-        <v>17.838558411257235</v>
+        <v>16.931262166675463</v>
       </c>
       <c r="ACX1">
-        <v>8.9791533467216684</v>
+        <v>7.985358297066095</v>
       </c>
       <c r="ACY1">
-        <v>14.329034692975636</v>
+        <v>13.674984425016545</v>
       </c>
       <c r="ACZ1">
-        <v>16.488826460278041</v>
+        <v>15.900143249296953</v>
       </c>
       <c r="ADA1">
-        <v>4.65094467678672</v>
+        <v>3.9257536804635982</v>
       </c>
       <c r="ADB1">
-        <v>9.1711046686864037</v>
+        <v>8.4329141420859131</v>
       </c>
       <c r="ADC1">
-        <v>8.3357679962025752</v>
+        <v>8.2016923101124615</v>
       </c>
       <c r="ADD1">
-        <v>16.145394613277272</v>
+        <v>15.166822045079828</v>
       </c>
       <c r="ADE1">
-        <v>8.0729917998701168</v>
+        <v>10.089433375722127</v>
       </c>
       <c r="ADF1">
-        <v>4.3656173950397754</v>
+        <v>4.7583454167838006</v>
       </c>
       <c r="ADG1">
-        <v>11.868454396142516</v>
+        <v>12.139901871461701</v>
       </c>
       <c r="ADH1">
-        <v>4.742512712567752</v>
+        <v>6.5706877208946466</v>
       </c>
       <c r="ADI1">
-        <v>13.728736227600805</v>
+        <v>13.586192375921915</v>
       </c>
       <c r="ADJ1">
-        <v>9.7563137037593037</v>
+        <v>9.1853725331279392</v>
       </c>
       <c r="ADK1">
-        <v>12.903106861132528</v>
+        <v>12.833833098062435</v>
       </c>
       <c r="ADL1">
-        <v>13.588967632396919</v>
+        <v>13.486353570254519</v>
       </c>
       <c r="ADM1">
-        <v>19.990543604009613</v>
+        <v>19.231614233021109</v>
       </c>
       <c r="ADN1">
-        <v>11.736906981163003</v>
+        <v>11.698559473239484</v>
       </c>
       <c r="ADO1">
-        <v>5.1750705968447104</v>
+        <v>5.1215616085984941</v>
       </c>
       <c r="ADP1">
-        <v>13.791817860683775</v>
+        <v>12.793018433631195</v>
       </c>
       <c r="ADQ1">
-        <v>8.5411699434152908</v>
+        <v>7.6383074629499035</v>
       </c>
       <c r="ADR1">
-        <v>11.860916525751207</v>
+        <v>10.888390700251367</v>
       </c>
       <c r="ADS1">
-        <v>5.9931554631274269</v>
+        <v>5.5806677446615636</v>
       </c>
       <c r="ADT1">
-        <v>5.2860690255215461</v>
+        <v>5.0178132242616194</v>
       </c>
       <c r="ADU1">
-        <v>6.0690757602557781</v>
+        <v>6.0841681792781159</v>
       </c>
       <c r="ADV1">
-        <v>9.2133313241102623</v>
+        <v>10.348242006709091</v>
       </c>
       <c r="ADW1">
-        <v>7.1713471225784611</v>
+        <v>6.2243530141998207</v>
       </c>
       <c r="ADX1">
-        <v>4.2245010716777447</v>
+        <v>4.2185988460556034</v>
       </c>
       <c r="ADY1">
-        <v>14.73244673711492</v>
+        <v>14.95727203850042</v>
       </c>
       <c r="ADZ1">
-        <v>15.194371923345074</v>
+        <v>14.32431305843682</v>
       </c>
       <c r="AEA1">
-        <v>18.319902658845393</v>
+        <v>18.599793575962579</v>
       </c>
       <c r="AEB1">
-        <v>9.2175739499996432</v>
+        <v>8.7616913258073605</v>
       </c>
       <c r="AEC1">
-        <v>11.982959505143601</v>
+        <v>11.032971582961505</v>
       </c>
       <c r="AED1">
-        <v>8.5770905364533476</v>
+        <v>7.5789188923420792</v>
       </c>
       <c r="AEE1">
-        <v>6.1448201656743695</v>
+        <v>6.6479983807715533</v>
       </c>
       <c r="AEF1">
-        <v>3.2488753112464175</v>
+        <v>3.8749203670899841</v>
       </c>
       <c r="AEG1">
-        <v>7.9915481801645329</v>
+        <v>7.0279748636027985</v>
       </c>
       <c r="AEH1">
-        <v>11.839098230610173</v>
+        <v>11.338779217938475</v>
       </c>
       <c r="AEI1">
-        <v>8.1240655412141365</v>
+        <v>9.0641205095380286</v>
       </c>
       <c r="AEJ1">
-        <v>12.164549529387081</v>
+        <v>13.35108525921833</v>
       </c>
       <c r="AEK1">
-        <v>6.4999676599847911</v>
+        <v>6.5862275958812591</v>
       </c>
       <c r="AEL1">
-        <v>12.68729630248918</v>
+        <v>15.390406139046746</v>
       </c>
       <c r="AEM1">
-        <v>5.7877781976006775</v>
+        <v>4.8752496967926326</v>
       </c>
       <c r="AEN1">
-        <v>11.439847226640754</v>
+        <v>12.916497704530698</v>
       </c>
       <c r="AEO1">
-        <v>8.0237583247653728</v>
+        <v>7.9914629538508155</v>
       </c>
       <c r="AEP1">
-        <v>14.14118516813129</v>
+        <v>13.751530034029866</v>
       </c>
       <c r="AEQ1">
-        <v>7.3731112774466547</v>
+        <v>7.2803857910094685</v>
       </c>
       <c r="AER1">
-        <v>9.1935164368150435</v>
+        <v>13.250409717692394</v>
       </c>
       <c r="AES1">
-        <v>5.6459669106744208</v>
+        <v>6.0850731429451228</v>
       </c>
       <c r="AET1">
-        <v>14.932581479359147</v>
+        <v>16.212363247143003</v>
       </c>
       <c r="AEU1">
-        <v>12.443217412789252</v>
+        <v>12.06304048743864</v>
       </c>
       <c r="AEV1">
-        <v>14.19377813761432</v>
+        <v>13.680326089602278</v>
       </c>
       <c r="AEW1">
-        <v>9.5162058309893336</v>
+        <v>10.938079525323596</v>
       </c>
       <c r="AEX1">
-        <v>8.3473405252101767</v>
+        <v>8.0291827352298188</v>
       </c>
       <c r="AEY1">
-        <v>10.077542351091667</v>
+        <v>9.1360420175240016</v>
       </c>
       <c r="AEZ1">
-        <v>10.032450101178506</v>
+        <v>9.167160226817062</v>
       </c>
       <c r="AFA1">
-        <v>7.9170159749378612</v>
+        <v>7.538816457381821</v>
       </c>
       <c r="AFB1">
-        <v>12.300572692955903</v>
+        <v>12.198761700860144</v>
       </c>
       <c r="AFC1">
-        <v>11.907719168951559</v>
+        <v>11.427664494452046</v>
       </c>
       <c r="AFD1">
-        <v>4.1245591872436673</v>
+        <v>5.9076803592756413</v>
       </c>
       <c r="AFE1">
-        <v>10.661348397638768</v>
+        <v>10.210033326858824</v>
       </c>
       <c r="AFF1">
-        <v>5.7690760192871213</v>
+        <v>7.0083021038771918</v>
       </c>
       <c r="AFG1">
-        <v>11.251277871927812</v>
+        <v>10.331287078900866</v>
       </c>
       <c r="AFH1">
-        <v>7.4506980274327326</v>
+        <v>7.4917133536268032</v>
       </c>
       <c r="AFI1">
-        <v>11.177693092230221</v>
+        <v>10.480560407427561</v>
       </c>
       <c r="AFJ1">
-        <v>10.248028287866671</v>
+        <v>10.590312430818726</v>
       </c>
       <c r="AFK1">
-        <v>6.6985936470204335</v>
+        <v>7.0323067915553032</v>
       </c>
       <c r="AFL1">
-        <v>5.9473532366499269</v>
+        <v>4.9492327945375125</v>
       </c>
       <c r="AFM1">
-        <v>14.257620452068027</v>
+        <v>15.197492062374472</v>
       </c>
       <c r="AFN1">
-        <v>10.017411080626687</v>
+        <v>9.0394875355264297</v>
       </c>
       <c r="AFO1">
-        <v>12.753120605820284</v>
+        <v>12.430458472366492</v>
       </c>
       <c r="AFP1">
-        <v>12.56088139793426</v>
+        <v>13.73206241729735</v>
       </c>
       <c r="AFQ1">
-        <v>4.5292684488753299</v>
+        <v>4.5427046546998389</v>
       </c>
       <c r="AFR1">
-        <v>3.9321192432013632</v>
+        <v>3.6913819360437659</v>
       </c>
       <c r="AFS1">
-        <v>8.0225573583842742</v>
+        <v>9.1697204997779753</v>
       </c>
       <c r="AFT1">
-        <v>7.9018783272867674</v>
+        <v>8.2434264041191003</v>
       </c>
       <c r="AFU1">
-        <v>10.201639712678329</v>
+        <v>10.861218927269299</v>
       </c>
       <c r="AFV1">
-        <v>5.3082733928804444</v>
+        <v>5.2070930433324634</v>
       </c>
       <c r="AFW1">
-        <v>11.014918325158177</v>
+        <v>11.799614038182415</v>
       </c>
       <c r="AFX1">
-        <v>10.406016707304675</v>
+        <v>9.4273698969321131</v>
       </c>
       <c r="AFY1">
-        <v>5.1115272357045098</v>
+        <v>4.6019342113332637</v>
       </c>
       <c r="AFZ1">
-        <v>5.1871289004227057</v>
+        <v>7.6303851235473861</v>
       </c>
       <c r="AGA1">
-        <v>11.412973462356856</v>
+        <v>11.023658711954329</v>
       </c>
       <c r="AGB1">
-        <v>16.06211574979756</v>
+        <v>15.065279246343323</v>
       </c>
       <c r="AGC1">
-        <v>7.9132475092229759</v>
+        <v>6.9310722838667367</v>
       </c>
       <c r="AGD1">
-        <v>10.162713973576224</v>
+        <v>10.819415757492063</v>
       </c>
       <c r="AGE1">
-        <v>8.9728279397573143</v>
+        <v>8.0790216249028042</v>
       </c>
       <c r="AGF1">
-        <v>3.8162110295710461</v>
+        <v>4.1524668731287013</v>
       </c>
       <c r="AGG1">
-        <v>8.3668054705477495</v>
+        <v>7.4891496072798214</v>
       </c>
       <c r="AGH1">
-        <v>9.4431669474308642</v>
+        <v>8.8092194030012578</v>
       </c>
       <c r="AGI1">
-        <v>17.36429952658677</v>
+        <v>16.373511017307003</v>
       </c>
       <c r="AGJ1">
-        <v>11.876034481294658</v>
+        <v>11.786747382852331</v>
       </c>
       <c r="AGK1">
-        <v>13.200536307836773</v>
+        <v>17.787257501240482</v>
       </c>
       <c r="AGL1">
-        <v>8.6997701820186837</v>
+        <v>8.0935432511294216</v>
       </c>
       <c r="AGM1">
-        <v>10.476460903027094</v>
+        <v>9.5723378680657767</v>
       </c>
       <c r="AGN1">
-        <v>9.7987583784638108</v>
+        <v>10.159030742216819</v>
       </c>
       <c r="AGO1">
-        <v>10.413951436460206</v>
+        <v>9.4162634990512082</v>
       </c>
       <c r="AGP1">
-        <v>14.420938240829535</v>
+        <v>13.428956870218357</v>
       </c>
       <c r="AGQ1">
-        <v>9.0720413069098456</v>
+        <v>8.7769293529803925</v>
       </c>
       <c r="AGR1">
-        <v>7.0343217261877475</v>
+        <v>6.5177678886370272</v>
       </c>
       <c r="AGS1">
-        <v>7.4652332095733396</v>
+        <v>6.7624670825732291</v>
       </c>
       <c r="AGT1">
-        <v>8.7013781148164089</v>
+        <v>8.1834140562833007</v>
       </c>
       <c r="AGU1">
-        <v>11.561222749922289</v>
+        <v>12.65423295581768</v>
       </c>
       <c r="AGV1">
-        <v>4.1628875004800392</v>
+        <v>4.5956041995139367</v>
       </c>
       <c r="AGW1">
-        <v>17.838563049809473</v>
+        <v>17.097755983132046</v>
       </c>
       <c r="AGX1">
-        <v>8.6248761808986618</v>
+        <v>7.6415455311534259</v>
       </c>
       <c r="AGY1">
-        <v>11.98671158173364</v>
+        <v>12.539312420296074</v>
       </c>
       <c r="AGZ1">
-        <v>7.3063672116976601</v>
+        <v>6.8154610148323949</v>
       </c>
       <c r="AHA1">
-        <v>3.7192191531358239</v>
+        <v>3.0059982895258068</v>
       </c>
       <c r="AHB1">
-        <v>6.5060157858574721</v>
+        <v>6.9145405502026964</v>
       </c>
       <c r="AHC1">
-        <v>17.062240442569845</v>
+        <v>16.095434124031016</v>
       </c>
       <c r="AHD1">
-        <v>11.498507599064894</v>
+        <v>16.037583371284239</v>
       </c>
       <c r="AHE1">
-        <v>5.7059987782552701</v>
+        <v>4.7060669649074134</v>
       </c>
       <c r="AHF1">
-        <v>8.4069929125196854</v>
+        <v>7.9729691234992899</v>
       </c>
       <c r="AHG1">
-        <v>9.1632637121131495</v>
+        <v>8.1649350908470151</v>
       </c>
       <c r="AHH1">
-        <v>10.936714844936603</v>
+        <v>14.880505920958768</v>
       </c>
       <c r="AHI1">
-        <v>7.6117446276612863</v>
+        <v>6.7504220806962296</v>
       </c>
       <c r="AHJ1">
-        <v>7.5409363317195988</v>
+        <v>7.0198641894159612</v>
       </c>
       <c r="AHK1">
-        <v>13.673823772653918</v>
+        <v>13.914961414485507</v>
       </c>
       <c r="AHL1">
-        <v>8.8222979294787436</v>
+        <v>9.1779414418645686</v>
       </c>
       <c r="AHM1">
-        <v>10.174147822913627</v>
+        <v>9.1955900518365716</v>
       </c>
       <c r="AHN1">
-        <v>15.440989424963778</v>
+        <v>20.197014588507045</v>
       </c>
       <c r="AHO1">
-        <v>9.604518490131678</v>
+        <v>11.552119163317194</v>
       </c>
       <c r="AHP1">
-        <v>8.5111259353918776</v>
+        <v>7.6957328659038122</v>
       </c>
       <c r="AHQ1">
-        <v>11.416783991745309</v>
+        <v>10.717090280727195</v>
       </c>
       <c r="AHR1">
-        <v>7.6190442370997946</v>
+        <v>7.8722010244510034</v>
       </c>
       <c r="AHS1">
-        <v>17.810275795495016</v>
+        <v>17.481198604719559</v>
       </c>
       <c r="AHT1">
-        <v>15.699156720600868</v>
+        <v>14.701027287023784</v>
       </c>
       <c r="AHU1">
-        <v>11.751201216583722</v>
+        <v>11.481605877025958</v>
       </c>
       <c r="AHV1">
-        <v>13.196962733674413</v>
+        <v>13.22353549170596</v>
       </c>
       <c r="AHW1">
-        <v>10.340424560952737</v>
+        <v>10.011798375718499</v>
       </c>
       <c r="AHX1">
-        <v>10.010113088692268</v>
+        <v>9.4240543092143447</v>
       </c>
       <c r="AHY1">
-        <v>3.3504411152755371</v>
+        <v>5.535750291887247</v>
       </c>
       <c r="AHZ1">
-        <v>12.874209350854812</v>
+        <v>11.918978870554831</v>
       </c>
       <c r="AIA1">
-        <v>5.6611382879870042</v>
+        <v>5.3483242523393448</v>
       </c>
       <c r="AIB1">
-        <v>21.299669928737302</v>
+        <v>20.716109472385945</v>
       </c>
       <c r="AIC1">
-        <v>6.5387546562064296</v>
+        <v>6.6303410832084193</v>
       </c>
       <c r="AID1">
-        <v>8.3494581407508921</v>
+        <v>7.6172330004781177</v>
       </c>
       <c r="AIE1">
-        <v>9.2738519212069814</v>
+        <v>14.48679826880498</v>
       </c>
       <c r="AIF1">
-        <v>11.812796614487743</v>
+        <v>11.360444578647652</v>
       </c>
       <c r="AIG1">
-        <v>7.8642996153688909</v>
+        <v>6.8678886022662926</v>
       </c>
       <c r="AIH1">
-        <v>7.3856768024453654</v>
+        <v>6.84120168648528</v>
       </c>
       <c r="AII1">
-        <v>8.1615655957775868</v>
+        <v>7.8129525872291996</v>
       </c>
       <c r="AIJ1">
-        <v>11.303062259557706</v>
+        <v>15.298475235826334</v>
       </c>
       <c r="AIK1">
-        <v>17.391106066359384</v>
+        <v>16.454527333060803</v>
       </c>
       <c r="AIL1">
-        <v>22.425566544865877</v>
+        <v>22.104724746232616</v>
       </c>
       <c r="AIM1">
-        <v>8.6651462149274199</v>
+        <v>8.8350358093755901</v>
       </c>
       <c r="AIN1">
-        <v>5.8106246270510002</v>
+        <v>5.8612662984263846</v>
       </c>
       <c r="AIO1">
-        <v>8.1441952875768653</v>
+        <v>7.9845448288844834</v>
       </c>
       <c r="AIP1">
-        <v>11.763412638386736</v>
+        <v>11.134085712529263</v>
       </c>
       <c r="AIQ1">
-        <v>9.3244058136903583</v>
+        <v>9.89167184795064</v>
       </c>
       <c r="AIR1">
-        <v>7.3664733753617231</v>
+        <v>6.6887084654593068</v>
       </c>
       <c r="AIS1">
-        <v>14.968489847944756</v>
+        <v>17.282095422684296</v>
       </c>
       <c r="AIT1">
-        <v>1.4339664060733397</v>
+        <v>3.6925027886948847</v>
       </c>
       <c r="AIU1">
-        <v>7.1831780698871857</v>
+        <v>6.2159952033898289</v>
       </c>
       <c r="AIV1">
-        <v>16.019377488336794</v>
+        <v>15.213088800453063</v>
       </c>
       <c r="AIW1">
-        <v>16.669547371912085</v>
+        <v>16.160656676357767</v>
       </c>
       <c r="AIX1">
-        <v>5.9959639888667491</v>
+        <v>5.1934065444066775</v>
       </c>
       <c r="AIY1">
-        <v>9.8044724731705841</v>
+        <v>10.829932201277554</v>
       </c>
       <c r="AIZ1">
-        <v>7.4847739706157395</v>
+        <v>7.1903849893486322</v>
       </c>
       <c r="AJA1">
-        <v>11.426502490323472</v>
+        <v>10.451330269428087</v>
       </c>
       <c r="AJB1">
-        <v>21.825520862365785</v>
+        <v>20.914622929987765</v>
       </c>
       <c r="AJC1">
-        <v>16.396905667304232</v>
+        <v>15.532001803481061</v>
       </c>
       <c r="AJD1">
-        <v>10.781500717931001</v>
+        <v>12.208337832464091</v>
       </c>
       <c r="AJE1">
-        <v>6.1328263105677578</v>
+        <v>6.2315065841386126</v>
       </c>
       <c r="AJF1">
-        <v>6.833608156973388</v>
+        <v>6.5309975533201161</v>
       </c>
       <c r="AJG1">
-        <v>12.678574494692567</v>
+        <v>12.994258927133718</v>
       </c>
       <c r="AJH1">
-        <v>5.3960685756150024</v>
+        <v>5.9117218303845611</v>
       </c>
       <c r="AJI1">
-        <v>5.9984840740963437</v>
+        <v>5.2060249297269667</v>
       </c>
       <c r="AJJ1">
-        <v>10.038608847939347</v>
+        <v>9.7340510751244711</v>
       </c>
       <c r="AJK1">
-        <v>11.522086164752768</v>
+        <v>12.25400938151782</v>
       </c>
       <c r="AJL1">
-        <v>3.8525236206670663</v>
+        <v>3.2284114366529408</v>
       </c>
       <c r="AJM1">
-        <v>5.8660968377417539</v>
+        <v>5.4235560499422828</v>
       </c>
       <c r="AJN1">
-        <v>8.0792945816102417</v>
+        <v>7.1020027581996521</v>
       </c>
       <c r="AJO1">
-        <v>13.821987125281476</v>
+        <v>13.055991409493927</v>
       </c>
       <c r="AJP1">
-        <v>18.215353803411304</v>
+        <v>17.317884279355361</v>
       </c>
       <c r="AJQ1">
-        <v>8.7247642298975947</v>
+        <v>8.2969671737787074</v>
       </c>
       <c r="AJR1">
-        <v>13.650306834565956</v>
+        <v>17.938107845276896</v>
       </c>
       <c r="AJS1">
-        <v>11.733468712301892</v>
+        <v>10.796867087554599</v>
       </c>
       <c r="AJT1">
-        <v>16.42464126300986</v>
+        <v>16.570810946382544</v>
       </c>
       <c r="AJU1">
-        <v>6.5393889370307114</v>
+        <v>6.2461537204400619</v>
       </c>
       <c r="AJV1">
-        <v>6.2211409401510478</v>
+        <v>6.7849676552750333</v>
       </c>
       <c r="AJW1">
-        <v>8.4017201073494974</v>
+        <v>8.7791150236052324</v>
       </c>
       <c r="AJX1">
-        <v>5.721361986884844</v>
+        <v>4.7839203784104019</v>
       </c>
       <c r="AJY1">
-        <v>9.8383524871396517</v>
+        <v>8.8689372572845215</v>
       </c>
       <c r="AJZ1">
-        <v>7.6307107636634512</v>
+        <v>7.3670920061713012</v>
       </c>
       <c r="AKA1">
-        <v>17.091647271530853</v>
+        <v>16.521132499320892</v>
       </c>
       <c r="AKB1">
-        <v>16.946972947141912</v>
+        <v>16.473606267282335</v>
       </c>
       <c r="AKC1">
-        <v>5.6483628434882611</v>
+        <v>4.7246882084662625</v>
       </c>
       <c r="AKD1">
-        <v>2.512808304721871</v>
+        <v>4.3499376935742688</v>
       </c>
       <c r="AKE1">
-        <v>7.9090826450551237</v>
+        <v>11.611876525158689</v>
       </c>
       <c r="AKF1">
-        <v>9.3009913561272484</v>
+        <v>9.664979896400105</v>
       </c>
       <c r="AKG1">
-        <v>12.762326844159256</v>
+        <v>12.085068590526603</v>
       </c>
       <c r="AKH1">
-        <v>5.3394767912734373</v>
+        <v>4.6289685095599662</v>
       </c>
       <c r="AKI1">
-        <v>11.146020082453857</v>
+        <v>11.451604892999868</v>
       </c>
       <c r="AKJ1">
-        <v>5.571988756841102</v>
+        <v>4.711641769781254</v>
       </c>
       <c r="AKK1">
-        <v>10.156679867797926</v>
+        <v>9.1970437223926105</v>
       </c>
       <c r="AKL1">
-        <v>12.610102203727577</v>
+        <v>11.822169515182349</v>
       </c>
       <c r="AKM1">
-        <v>13.850691298012556</v>
+        <v>12.87846467821284</v>
       </c>
       <c r="AKN1">
-        <v>7.8038577430156284</v>
+        <v>6.8559593071073852</v>
       </c>
       <c r="AKO1">
-        <v>15.145361507406982</v>
+        <v>14.364809668137056</v>
       </c>
       <c r="AKP1">
-        <v>16.622271503803503</v>
+        <v>18.34460050080023</v>
       </c>
       <c r="AKQ1">
-        <v>14.335075147510256</v>
+        <v>15.272019621985807</v>
       </c>
       <c r="AKR1">
-        <v>18.542111955164504</v>
+        <v>17.745201580087333</v>
       </c>
       <c r="AKS1">
-        <v>14.639515738706852</v>
+        <v>13.640288317849787</v>
       </c>
       <c r="AKT1">
-        <v>16.918833341189501</v>
+        <v>16.645915628068803</v>
       </c>
       <c r="AKU1">
-        <v>15.999233973438777</v>
+        <v>15.068362667580896</v>
       </c>
       <c r="AKV1">
-        <v>8.9995417583309258</v>
+        <v>8.0539214471935772</v>
       </c>
       <c r="AKW1">
-        <v>5.774157697087551</v>
+        <v>5.6184838867028892</v>
       </c>
       <c r="AKX1">
-        <v>4.716723491741674</v>
+        <v>4.1168684325961165</v>
       </c>
       <c r="AKY1">
-        <v>13.879417815818028</v>
+        <v>13.581161154954158</v>
       </c>
       <c r="AKZ1">
-        <v>11.544582938998593</v>
+        <v>15.33523096157786</v>
       </c>
       <c r="ALA1">
-        <v>7.9085335900818929</v>
+        <v>7.652956993748572</v>
       </c>
       <c r="ALB1">
-        <v>9.5526822510415172</v>
+        <v>9.7264316677981295</v>
       </c>
       <c r="ALC1">
-        <v>13.147476848438771</v>
+        <v>12.241414155576331</v>
       </c>
       <c r="ALD1">
-        <v>6.4826461353525247</v>
+        <v>7.4332590893107096</v>
       </c>
       <c r="ALE1">
-        <v>9.8132688096917065</v>
+        <v>8.9112955765796649</v>
       </c>
       <c r="ALF1">
-        <v>17.383013305708616</v>
+        <v>18.478232896136205</v>
       </c>
       <c r="ALG1">
-        <v>5.7767549254745081</v>
+        <v>5.3253924608590735</v>
       </c>
       <c r="ALH1">
-        <v>7.6069920843058076</v>
+        <v>7.4104206500263823</v>
       </c>
       <c r="ALI1">
-        <v>10.371068480235815</v>
+        <v>10.895209193626927</v>
       </c>
       <c r="ALJ1">
-        <v>10.964170782163793</v>
+        <v>10.545759687303821</v>
       </c>
       <c r="ALK1">
-        <v>12.226185702043121</v>
+        <v>12.399582617588734</v>
       </c>
       <c r="ALL1">
-        <v>14.648745564053932</v>
+        <v>13.690158792819165</v>
       </c>
     </row>
   </sheetData>
